--- a/FSP_Exchange/data/Trisomy/3_FMF_UK_A5_cv__ds_afphcgbue3i_3A5.xlsx
+++ b/FSP_Exchange/data/Trisomy/3_FMF_UK_A5_cv__ds_afphcgbue3i_3A5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glohezic\DEV\CLINICAL_VALIDATIONS\2T_TRISO\3_FMF_UK_A1_to_A6\feedback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/heike_goehler_thermofisher_com/Documents/FSP_Exchange/data/Trisomy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73AE44F-87BC-4999-B8F3-1008E7C8543C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F73AE44F-87BC-4999-B8F3-1008E7C8543C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C1F44E9-4F2C-4494-A3DB-196D5D24CB9B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original_data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FSP output'!$A$1:$K$516</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1822,7 +1835,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1878,12 +1891,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2185,9 +2209,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2342,7 +2366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -2416,7 +2440,7 @@
         <v>217.45799620301071</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -2490,7 +2514,7 @@
         <v>186.79507337989179</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2564,7 +2588,7 @@
         <v>360.77404024364512</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2644,7 +2668,7 @@
         <v>516.03166456723795</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2718,7 +2742,7 @@
         <v>254.62333484209421</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -2792,7 +2816,7 @@
         <v>69.224372547787482</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -2872,7 +2896,7 @@
         <v>113.9890058248105</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2946,7 +2970,7 @@
         <v>79.20355834364203</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -3020,7 +3044,7 @@
         <v>382.56307768846528</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -3094,7 +3118,7 @@
         <v>246.94662092091011</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -3168,7 +3192,7 @@
         <v>315.18047394878772</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3242,7 +3266,7 @@
         <v>94.686201056697982</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -3316,7 +3340,7 @@
         <v>241.19856205117051</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -3390,7 +3414,7 @@
         <v>172.33609212022961</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -3464,7 +3488,7 @@
         <v>233.35995461487249</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -3538,7 +3562,7 @@
         <v>141.43494880758129</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -3612,7 +3636,7 @@
         <v>214.40471037600679</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -3686,7 +3710,7 @@
         <v>112.7345746697611</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -3760,7 +3784,7 @@
         <v>197.37451908921909</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -3834,7 +3858,7 @@
         <v>306.52824262571028</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -3908,7 +3932,7 @@
         <v>132.68952717803211</v>
       </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -3982,7 +4006,7 @@
         <v>210.25932508519921</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -4056,7 +4080,7 @@
         <v>103.44714517804201</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -4130,7 +4154,7 @@
         <v>239.26997655195879</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -4204,7 +4228,7 @@
         <v>137.6392453792873</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -4278,7 +4302,7 @@
         <v>87.845376633976812</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -4352,7 +4376,7 @@
         <v>408.40281618875701</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -4426,7 +4450,7 @@
         <v>282.45009860038988</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -4500,7 +4524,7 @@
         <v>120.6861506873785</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -4574,7 +4598,7 @@
         <v>278.41122920904542</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -4648,7 +4672,7 @@
         <v>392.54398255200272</v>
       </c>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -4722,7 +4746,7 @@
         <v>304.65372023189627</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -4796,7 +4820,7 @@
         <v>223.93166742332079</v>
       </c>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -4870,7 +4894,7 @@
         <v>84.150315338091403</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -4944,7 +4968,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -5018,7 +5042,7 @@
         <v>169.9613555810196</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -5092,7 +5116,7 @@
         <v>503.77629104174122</v>
       </c>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -5166,7 +5190,7 @@
         <v>95.883509090555734</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -5240,7 +5264,7 @@
         <v>130.87653945836499</v>
       </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -5314,7 +5338,7 @@
         <v>235.18993793582291</v>
       </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -5388,7 +5412,7 @@
         <v>196.65396703690811</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -5462,7 +5486,7 @@
         <v>67.030115171184406</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -5536,7 +5560,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -5610,7 +5634,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -5684,7 +5708,7 @@
         <v>345.70127396749632</v>
       </c>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -5758,7 +5782,7 @@
         <v>73.200845542703789</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -5832,7 +5856,7 @@
         <v>156.16579244453001</v>
       </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -5906,7 +5930,7 @@
         <v>166.08263386728899</v>
       </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -5980,7 +6004,7 @@
         <v>169.5425909202915</v>
       </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -6054,7 +6078,7 @@
         <v>379.98161748467822</v>
       </c>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -6128,7 +6152,7 @@
         <v>200.46199918943859</v>
       </c>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -6202,7 +6226,7 @@
         <v>94.586044481977012</v>
       </c>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -6276,7 +6300,7 @@
         <v>342.24366263910139</v>
       </c>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -6350,7 +6374,7 @@
         <v>211.8422640880647</v>
       </c>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -6424,7 +6448,7 @@
         <v>118.2232241760735</v>
       </c>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -6498,7 +6522,7 @@
         <v>139.57647780052889</v>
       </c>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -6572,7 +6596,7 @@
         <v>102.8983688057283</v>
       </c>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -6646,7 +6670,7 @@
         <v>78.094605027675357</v>
       </c>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -6720,7 +6744,7 @@
         <v>147.9895977118214</v>
       </c>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -6794,7 +6818,7 @@
         <v>82.317018446116521</v>
       </c>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -6868,7 +6892,7 @@
         <v>165.97101861651609</v>
       </c>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -6942,7 +6966,7 @@
         <v>190.6277527397103</v>
       </c>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -7016,7 +7040,7 @@
         <v>128.87981492048971</v>
       </c>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -7090,7 +7114,7 @@
         <v>179.95486472916329</v>
       </c>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -7164,7 +7188,7 @@
         <v>271.96203537993767</v>
       </c>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -7238,7 +7262,7 @@
         <v>160.30493820971631</v>
       </c>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -7312,7 +7336,7 @@
         <v>275.60853803190452</v>
       </c>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -7386,7 +7410,7 @@
         <v>208.44296887080139</v>
       </c>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>130</v>
       </c>
@@ -7460,7 +7484,7 @@
         <v>278.91438506333787</v>
       </c>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>131</v>
       </c>
@@ -7534,7 +7558,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -7608,7 +7632,7 @@
         <v>208.7469249599138</v>
       </c>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -7682,7 +7706,7 @@
         <v>540.06232034867583</v>
       </c>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>134</v>
       </c>
@@ -7756,7 +7780,7 @@
         <v>53.325468573053932</v>
       </c>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -7830,7 +7854,7 @@
         <v>68.337473300743611</v>
       </c>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -7904,7 +7928,7 @@
         <v>219.4037651914131</v>
       </c>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>137</v>
       </c>
@@ -7978,7 +8002,7 @@
         <v>261.63496617652521</v>
       </c>
     </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>138</v>
       </c>
@@ -8052,7 +8076,7 @@
         <v>94.51643649507885</v>
       </c>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>139</v>
       </c>
@@ -8126,7 +8150,7 @@
         <v>201.66468207347</v>
       </c>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>140</v>
       </c>
@@ -8200,7 +8224,7 @@
         <v>294.70158667342719</v>
       </c>
     </row>
-    <row r="81" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -8274,7 +8298,7 @@
         <v>153.4614476260337</v>
       </c>
     </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -8348,7 +8372,7 @@
         <v>130.82931718259181</v>
       </c>
     </row>
-    <row r="83" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -8422,7 +8446,7 @@
         <v>231.90089478176941</v>
       </c>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>144</v>
       </c>
@@ -8496,7 +8520,7 @@
         <v>201.76758479527621</v>
       </c>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -8570,7 +8594,7 @@
         <v>397.54968402567363</v>
       </c>
     </row>
-    <row r="86" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>146</v>
       </c>
@@ -8644,7 +8668,7 @@
         <v>108.6553498036818</v>
       </c>
     </row>
-    <row r="87" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -8718,7 +8742,7 @@
         <v>184.2571016639566</v>
       </c>
     </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -8792,7 +8816,7 @@
         <v>93.837402202746134</v>
       </c>
     </row>
-    <row r="89" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>149</v>
       </c>
@@ -8866,7 +8890,7 @@
         <v>262.32015648972731</v>
       </c>
     </row>
-    <row r="90" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>150</v>
       </c>
@@ -8940,7 +8964,7 @@
         <v>186.43668922978731</v>
       </c>
     </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>151</v>
       </c>
@@ -9014,7 +9038,7 @@
         <v>182.20200626471879</v>
       </c>
     </row>
-    <row r="92" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -9088,7 +9112,7 @@
         <v>68.211538610895971</v>
       </c>
     </row>
-    <row r="93" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -9162,7 +9186,7 @@
         <v>139.27578543073031</v>
       </c>
     </row>
-    <row r="94" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>154</v>
       </c>
@@ -9236,7 +9260,7 @@
         <v>141.88505799877569</v>
       </c>
     </row>
-    <row r="95" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>155</v>
       </c>
@@ -9310,7 +9334,7 @@
         <v>102.01809262435189</v>
       </c>
     </row>
-    <row r="96" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -9384,7 +9408,7 @@
         <v>120.4845723750867</v>
       </c>
     </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>157</v>
       </c>
@@ -9458,7 +9482,7 @@
         <v>161.35918427919509</v>
       </c>
     </row>
-    <row r="98" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>158</v>
       </c>
@@ -9532,7 +9556,7 @@
         <v>244.25400914904299</v>
       </c>
     </row>
-    <row r="99" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>159</v>
       </c>
@@ -9606,7 +9630,7 @@
         <v>71.451283453769193</v>
       </c>
     </row>
-    <row r="100" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -9680,7 +9704,7 @@
         <v>667.82135317124232</v>
       </c>
     </row>
-    <row r="101" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>161</v>
       </c>
@@ -9754,7 +9778,7 @@
         <v>247.97279363535009</v>
       </c>
     </row>
-    <row r="102" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>162</v>
       </c>
@@ -9828,7 +9852,7 @@
         <v>255.9769706486444</v>
       </c>
     </row>
-    <row r="103" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -9902,7 +9926,7 @@
         <v>312.49056253411118</v>
       </c>
     </row>
-    <row r="104" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>164</v>
       </c>
@@ -9976,7 +10000,7 @@
         <v>142.44142826177361</v>
       </c>
     </row>
-    <row r="105" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>165</v>
       </c>
@@ -10050,7 +10074,7 @@
         <v>88.056941107360416</v>
       </c>
     </row>
-    <row r="106" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>166</v>
       </c>
@@ -10124,7 +10148,7 @@
         <v>201.19744648643001</v>
       </c>
     </row>
-    <row r="107" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>167</v>
       </c>
@@ -10198,7 +10222,7 @@
         <v>267.25547138611739</v>
       </c>
     </row>
-    <row r="108" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>168</v>
       </c>
@@ -10272,7 +10296,7 @@
         <v>175.98250610912899</v>
       </c>
     </row>
-    <row r="109" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>169</v>
       </c>
@@ -10346,7 +10370,7 @@
         <v>156.93513105549309</v>
       </c>
     </row>
-    <row r="110" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>170</v>
       </c>
@@ -10420,7 +10444,7 @@
         <v>174.7200822128851</v>
       </c>
     </row>
-    <row r="111" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>171</v>
       </c>
@@ -10494,7 +10518,7 @@
         <v>92.247722447492563</v>
       </c>
     </row>
-    <row r="112" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>172</v>
       </c>
@@ -10568,7 +10592,7 @@
         <v>233.8767858744086</v>
       </c>
     </row>
-    <row r="113" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>173</v>
       </c>
@@ -10642,7 +10666,7 @@
         <v>120.61024992180459</v>
       </c>
     </row>
-    <row r="114" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>174</v>
       </c>
@@ -10716,7 +10740,7 @@
         <v>137.3416028688371</v>
       </c>
     </row>
-    <row r="115" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>175</v>
       </c>
@@ -10790,7 +10814,7 @@
         <v>185.67168011816511</v>
       </c>
     </row>
-    <row r="116" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>176</v>
       </c>
@@ -10864,7 +10888,7 @@
         <v>398.94435873737842</v>
       </c>
     </row>
-    <row r="117" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>177</v>
       </c>
@@ -10938,7 +10962,7 @@
         <v>267.43543545771809</v>
       </c>
     </row>
-    <row r="118" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>178</v>
       </c>
@@ -11012,7 +11036,7 @@
         <v>105.7587647732897</v>
       </c>
     </row>
-    <row r="119" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>179</v>
       </c>
@@ -11086,7 +11110,7 @@
         <v>239.58346436512011</v>
       </c>
     </row>
-    <row r="120" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>180</v>
       </c>
@@ -11160,7 +11184,7 @@
         <v>148.8587497343473</v>
       </c>
     </row>
-    <row r="121" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>181</v>
       </c>
@@ -11234,7 +11258,7 @@
         <v>179.2720099864226</v>
       </c>
     </row>
-    <row r="122" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>182</v>
       </c>
@@ -11308,7 +11332,7 @@
         <v>205.42741380320729</v>
       </c>
     </row>
-    <row r="123" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>183</v>
       </c>
@@ -11382,7 +11406,7 @@
         <v>210.91062631899649</v>
       </c>
     </row>
-    <row r="124" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>184</v>
       </c>
@@ -11456,7 +11480,7 @@
         <v>374.1018616516148</v>
       </c>
     </row>
-    <row r="125" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>185</v>
       </c>
@@ -11530,7 +11554,7 @@
         <v>138.2831253887708</v>
       </c>
     </row>
-    <row r="126" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>186</v>
       </c>
@@ -11604,7 +11628,7 @@
         <v>119.61471429892759</v>
       </c>
     </row>
-    <row r="127" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>187</v>
       </c>
@@ -11678,7 +11702,7 @@
         <v>155.23088377439331</v>
       </c>
     </row>
-    <row r="128" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>188</v>
       </c>
@@ -11752,7 +11776,7 @@
         <v>130.93804944211169</v>
       </c>
     </row>
-    <row r="129" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>189</v>
       </c>
@@ -11826,7 +11850,7 @@
         <v>400.80127979281559</v>
       </c>
     </row>
-    <row r="130" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>190</v>
       </c>
@@ -11900,7 +11924,7 @@
         <v>72.884201555718576</v>
       </c>
     </row>
-    <row r="131" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>191</v>
       </c>
@@ -11974,7 +11998,7 @@
         <v>253.92968003293129</v>
       </c>
     </row>
-    <row r="132" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>192</v>
       </c>
@@ -12048,7 +12072,7 @@
         <v>313.06776137928989</v>
       </c>
     </row>
-    <row r="133" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>193</v>
       </c>
@@ -12122,7 +12146,7 @@
         <v>136.01316295788459</v>
       </c>
     </row>
-    <row r="134" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>194</v>
       </c>
@@ -12196,7 +12220,7 @@
         <v>118.7173201310718</v>
       </c>
     </row>
-    <row r="135" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>195</v>
       </c>
@@ -12270,7 +12294,7 @@
         <v>90.195224535646176</v>
       </c>
     </row>
-    <row r="136" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>196</v>
       </c>
@@ -12344,7 +12368,7 @@
         <v>111.0046958890654</v>
       </c>
     </row>
-    <row r="137" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>197</v>
       </c>
@@ -12418,7 +12442,7 @@
         <v>254.06744859753039</v>
       </c>
     </row>
-    <row r="138" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>198</v>
       </c>
@@ -12492,7 +12516,7 @@
         <v>327.36610621048112</v>
       </c>
     </row>
-    <row r="139" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>199</v>
       </c>
@@ -12566,7 +12590,7 @@
         <v>288.55031434874002</v>
       </c>
     </row>
-    <row r="140" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>200</v>
       </c>
@@ -12640,7 +12664,7 @@
         <v>311.89546611734067</v>
       </c>
     </row>
-    <row r="141" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>201</v>
       </c>
@@ -12714,7 +12738,7 @@
         <v>93.853217249353818</v>
       </c>
     </row>
-    <row r="142" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>202</v>
       </c>
@@ -12788,7 +12812,7 @@
         <v>138.86844385073181</v>
       </c>
     </row>
-    <row r="143" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>203</v>
       </c>
@@ -12862,7 +12886,7 @@
         <v>619.54375590878647</v>
       </c>
     </row>
-    <row r="144" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>204</v>
       </c>
@@ -12936,7 +12960,7 @@
         <v>187.05872248067709</v>
       </c>
     </row>
-    <row r="145" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>205</v>
       </c>
@@ -13010,7 +13034,7 @@
         <v>297.84418596605428</v>
       </c>
     </row>
-    <row r="146" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>206</v>
       </c>
@@ -13084,7 +13108,7 @@
         <v>165.1607697159323</v>
       </c>
     </row>
-    <row r="147" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>207</v>
       </c>
@@ -13158,7 +13182,7 @@
         <v>68.78097086610893</v>
       </c>
     </row>
-    <row r="148" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>208</v>
       </c>
@@ -13232,7 +13256,7 @@
         <v>183.79640166826351</v>
       </c>
     </row>
-    <row r="149" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>209</v>
       </c>
@@ -13306,7 +13330,7 @@
         <v>58.02530284405465</v>
       </c>
     </row>
-    <row r="150" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>210</v>
       </c>
@@ -13380,7 +13404,7 @@
         <v>244.09522259876471</v>
       </c>
     </row>
-    <row r="151" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -13454,7 +13478,7 @@
         <v>246.9094768636815</v>
       </c>
     </row>
-    <row r="152" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>212</v>
       </c>
@@ -13528,7 +13552,7 @@
         <v>354.04923241379271</v>
       </c>
     </row>
-    <row r="153" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>213</v>
       </c>
@@ -13602,7 +13626,7 @@
         <v>228.57997151779651</v>
       </c>
     </row>
-    <row r="154" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>214</v>
       </c>
@@ -13676,7 +13700,7 @@
         <v>151.86724426560889</v>
       </c>
     </row>
-    <row r="155" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>215</v>
       </c>
@@ -13750,7 +13774,7 @@
         <v>114.3743842329751</v>
       </c>
     </row>
-    <row r="156" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>216</v>
       </c>
@@ -13824,7 +13848,7 @@
         <v>175.57864343091231</v>
       </c>
     </row>
-    <row r="157" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>217</v>
       </c>
@@ -13898,7 +13922,7 @@
         <v>149.21594729580039</v>
       </c>
     </row>
-    <row r="158" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>218</v>
       </c>
@@ -13972,7 +13996,7 @@
         <v>171.65086706916429</v>
       </c>
     </row>
-    <row r="159" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>219</v>
       </c>
@@ -14046,7 +14070,7 @@
         <v>358.39181528507282</v>
       </c>
     </row>
-    <row r="160" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>220</v>
       </c>
@@ -14120,7 +14144,7 @@
         <v>160.35086676016039</v>
       </c>
     </row>
-    <row r="161" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>221</v>
       </c>
@@ -14194,7 +14218,7 @@
         <v>379.29841639230602</v>
       </c>
     </row>
-    <row r="162" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>222</v>
       </c>
@@ -14268,7 +14292,7 @@
         <v>194.50935344550641</v>
       </c>
     </row>
-    <row r="163" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>223</v>
       </c>
@@ -14342,7 +14366,7 @@
         <v>249.3783070418902</v>
       </c>
     </row>
-    <row r="164" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>224</v>
       </c>
@@ -14416,7 +14440,7 @@
         <v>63.106457743918398</v>
       </c>
     </row>
-    <row r="165" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>225</v>
       </c>
@@ -14490,7 +14514,7 @@
         <v>427.2429883578817</v>
       </c>
     </row>
-    <row r="166" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>226</v>
       </c>
@@ -14564,7 +14588,7 @@
         <v>131.22634609303091</v>
       </c>
     </row>
-    <row r="167" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>227</v>
       </c>
@@ -14638,7 +14662,7 @@
         <v>121.35584255851241</v>
       </c>
     </row>
-    <row r="168" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>228</v>
       </c>
@@ -14712,7 +14736,7 @@
         <v>265.22909745870118</v>
       </c>
     </row>
-    <row r="169" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>229</v>
       </c>
@@ -14786,7 +14810,7 @@
         <v>258.05347438402117</v>
       </c>
     </row>
-    <row r="170" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>230</v>
       </c>
@@ -14860,7 +14884,7 @@
         <v>132.5489108063627</v>
       </c>
     </row>
-    <row r="171" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>231</v>
       </c>
@@ -14934,7 +14958,7 @@
         <v>73.343136417328537</v>
       </c>
     </row>
-    <row r="172" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>232</v>
       </c>
@@ -15008,7 +15032,7 @@
         <v>248.3777153940168</v>
       </c>
     </row>
-    <row r="173" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>233</v>
       </c>
@@ -15082,7 +15106,7 @@
         <v>147.34112507000549</v>
       </c>
     </row>
-    <row r="174" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>234</v>
       </c>
@@ -15156,7 +15180,7 @@
         <v>201.42550180996849</v>
       </c>
     </row>
-    <row r="175" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>235</v>
       </c>
@@ -15230,7 +15254,7 @@
         <v>149.62799516776889</v>
       </c>
     </row>
-    <row r="176" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>236</v>
       </c>
@@ -15304,7 +15328,7 @@
         <v>128.4697246105047</v>
       </c>
     </row>
-    <row r="177" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>237</v>
       </c>
@@ -15378,7 +15402,7 @@
         <v>178.86497006685619</v>
       </c>
     </row>
-    <row r="178" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>238</v>
       </c>
@@ -15452,7 +15476,7 @@
         <v>181.84663456005441</v>
       </c>
     </row>
-    <row r="179" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>239</v>
       </c>
@@ -15526,7 +15550,7 @@
         <v>53.58846181273622</v>
       </c>
     </row>
-    <row r="180" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>240</v>
       </c>
@@ -15600,7 +15624,7 @@
         <v>96.358719727067921</v>
       </c>
     </row>
-    <row r="181" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>241</v>
       </c>
@@ -15674,7 +15698,7 @@
         <v>77.061214850002429</v>
       </c>
     </row>
-    <row r="182" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>242</v>
       </c>
@@ -15748,7 +15772,7 @@
         <v>67.655168347898041</v>
       </c>
     </row>
-    <row r="183" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>243</v>
       </c>
@@ -15822,7 +15846,7 @@
         <v>202.65827145361621</v>
       </c>
     </row>
-    <row r="184" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>244</v>
       </c>
@@ -15896,7 +15920,7 @@
         <v>226.97440555579479</v>
       </c>
     </row>
-    <row r="185" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>245</v>
       </c>
@@ -15970,7 +15994,7 @@
         <v>128.16255260982129</v>
       </c>
     </row>
-    <row r="186" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>246</v>
       </c>
@@ -16044,7 +16068,7 @@
         <v>237.81833028200489</v>
       </c>
     </row>
-    <row r="187" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>247</v>
       </c>
@@ -16118,7 +16142,7 @@
         <v>292.42487130407397</v>
       </c>
     </row>
-    <row r="188" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>248</v>
       </c>
@@ -16192,7 +16216,7 @@
         <v>90.67110468445405</v>
       </c>
     </row>
-    <row r="189" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>249</v>
       </c>
@@ -16266,7 +16290,7 @@
         <v>85.258388904848076</v>
       </c>
     </row>
-    <row r="190" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>250</v>
       </c>
@@ -16340,7 +16364,7 @@
         <v>168.97633590642809</v>
       </c>
     </row>
-    <row r="191" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>251</v>
       </c>
@@ -16414,7 +16438,7 @@
         <v>185.1849028403239</v>
       </c>
     </row>
-    <row r="192" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>252</v>
       </c>
@@ -16488,7 +16512,7 @@
         <v>126.2353792178761</v>
       </c>
     </row>
-    <row r="193" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>253</v>
       </c>
@@ -16562,7 +16586,7 @@
         <v>227.56537244682181</v>
       </c>
     </row>
-    <row r="194" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>254</v>
       </c>
@@ -16636,7 +16660,7 @@
         <v>99.950767586207391</v>
       </c>
     </row>
-    <row r="195" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>255</v>
       </c>
@@ -16710,7 +16734,7 @@
         <v>121.4981123656115</v>
       </c>
     </row>
-    <row r="196" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>256</v>
       </c>
@@ -16784,7 +16808,7 @@
         <v>119.7298010411467</v>
       </c>
     </row>
-    <row r="197" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>257</v>
       </c>
@@ -16858,7 +16882,7 @@
         <v>123.41963732849079</v>
       </c>
     </row>
-    <row r="198" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>258</v>
       </c>
@@ -16932,7 +16956,7 @@
         <v>69.67342265853199</v>
       </c>
     </row>
-    <row r="199" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>259</v>
       </c>
@@ -17006,7 +17030,7 @@
         <v>339.48475806719227</v>
       </c>
     </row>
-    <row r="200" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>260</v>
       </c>
@@ -17080,7 +17104,7 @@
         <v>61.902275755555301</v>
       </c>
     </row>
-    <row r="201" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>261</v>
       </c>
@@ -17154,7 +17178,7 @@
         <v>381.02824779375902</v>
       </c>
     </row>
-    <row r="202" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>262</v>
       </c>
@@ -17228,7 +17252,7 @@
         <v>63.992162098617342</v>
       </c>
     </row>
-    <row r="203" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>263</v>
       </c>
@@ -17302,7 +17326,7 @@
         <v>261.96748269992082</v>
       </c>
     </row>
-    <row r="204" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>264</v>
       </c>
@@ -17376,7 +17400,7 @@
         <v>64.047587308827161</v>
       </c>
     </row>
-    <row r="205" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>265</v>
       </c>
@@ -17450,7 +17474,7 @@
         <v>266.78382755910911</v>
       </c>
     </row>
-    <row r="206" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>266</v>
       </c>
@@ -17524,7 +17548,7 @@
         <v>160.51322403152389</v>
       </c>
     </row>
-    <row r="207" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>267</v>
       </c>
@@ -17598,7 +17622,7 @@
         <v>338.26487959054958</v>
       </c>
     </row>
-    <row r="208" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>268</v>
       </c>
@@ -17672,7 +17696,7 @@
         <v>394.09730054514398</v>
       </c>
     </row>
-    <row r="209" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>269</v>
       </c>
@@ -17746,7 +17770,7 @@
         <v>628.39060793335989</v>
       </c>
     </row>
-    <row r="210" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>270</v>
       </c>
@@ -17820,7 +17844,7 @@
         <v>113.2217516767009</v>
       </c>
     </row>
-    <row r="211" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>271</v>
       </c>
@@ -17900,7 +17924,7 @@
         <v>103.1453072498293</v>
       </c>
     </row>
-    <row r="212" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>272</v>
       </c>
@@ -17980,7 +18004,7 @@
         <v>260.29801888411049</v>
       </c>
     </row>
-    <row r="213" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>273</v>
       </c>
@@ -18054,7 +18078,7 @@
         <v>171.4616446954544</v>
       </c>
     </row>
-    <row r="214" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>274</v>
       </c>
@@ -18128,7 +18152,7 @@
         <v>369.8796609248032</v>
       </c>
     </row>
-    <row r="215" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>275</v>
       </c>
@@ -18202,7 +18226,7 @@
         <v>120.0650410669456</v>
       </c>
     </row>
-    <row r="216" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>276</v>
       </c>
@@ -18276,7 +18300,7 @@
         <v>229.68101344988841</v>
       </c>
     </row>
-    <row r="217" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>277</v>
       </c>
@@ -18350,7 +18374,7 @@
         <v>306.6652670330144</v>
       </c>
     </row>
-    <row r="218" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>278</v>
       </c>
@@ -18424,7 +18448,7 @@
         <v>132.01160399146241</v>
       </c>
     </row>
-    <row r="219" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>279</v>
       </c>
@@ -18498,7 +18522,7 @@
         <v>159.78492970883059</v>
       </c>
     </row>
-    <row r="220" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>280</v>
       </c>
@@ -18572,7 +18596,7 @@
         <v>152.25643829711299</v>
       </c>
     </row>
-    <row r="221" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>281</v>
       </c>
@@ -18646,7 +18670,7 @@
         <v>294.24331243649931</v>
       </c>
     </row>
-    <row r="222" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>282</v>
       </c>
@@ -18720,7 +18744,7 @@
         <v>139.2242948818878</v>
       </c>
     </row>
-    <row r="223" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>283</v>
       </c>
@@ -18794,7 +18818,7 @@
         <v>340.44781522293999</v>
       </c>
     </row>
-    <row r="224" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>284</v>
       </c>
@@ -18865,7 +18889,7 @@
         <v>71.446323331612916</v>
       </c>
     </row>
-    <row r="225" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>285</v>
       </c>
@@ -18939,7 +18963,7 @@
         <v>91.338678394688216</v>
       </c>
     </row>
-    <row r="226" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>286</v>
       </c>
@@ -19013,7 +19037,7 @@
         <v>157.43306505648781</v>
       </c>
     </row>
-    <row r="227" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>287</v>
       </c>
@@ -19087,7 +19111,7 @@
         <v>206.69901639668359</v>
       </c>
     </row>
-    <row r="228" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>288</v>
       </c>
@@ -19161,7 +19185,7 @@
         <v>131.63351227085909</v>
       </c>
     </row>
-    <row r="229" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>289</v>
       </c>
@@ -19235,7 +19259,7 @@
         <v>94.227212675570115</v>
       </c>
     </row>
-    <row r="230" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>290</v>
       </c>
@@ -19309,7 +19333,7 @@
         <v>170.1886299947117</v>
       </c>
     </row>
-    <row r="231" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>291</v>
       </c>
@@ -19383,7 +19407,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="232" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>292</v>
       </c>
@@ -19457,7 +19481,7 @@
         <v>181.72201609378649</v>
       </c>
     </row>
-    <row r="233" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>293</v>
       </c>
@@ -19531,7 +19555,7 @@
         <v>93.519325040968766</v>
       </c>
     </row>
-    <row r="234" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>294</v>
       </c>
@@ -19605,7 +19629,7 @@
         <v>107.65134153720579</v>
       </c>
     </row>
-    <row r="235" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>295</v>
       </c>
@@ -19679,7 +19703,7 @@
         <v>63.398724019874003</v>
       </c>
     </row>
-    <row r="236" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>296</v>
       </c>
@@ -19753,7 +19777,7 @@
         <v>183.865241897505</v>
       </c>
     </row>
-    <row r="237" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>297</v>
       </c>
@@ -19827,7 +19851,7 @@
         <v>158.79539554183609</v>
       </c>
     </row>
-    <row r="238" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>298</v>
       </c>
@@ -19901,7 +19925,7 @@
         <v>321.42531823602383</v>
       </c>
     </row>
-    <row r="239" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>299</v>
       </c>
@@ -19975,7 +19999,7 @@
         <v>235.8484406452483</v>
       </c>
     </row>
-    <row r="240" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>300</v>
       </c>
@@ -20049,7 +20073,7 @@
         <v>119.99861314036259</v>
       </c>
     </row>
-    <row r="241" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>301</v>
       </c>
@@ -20123,7 +20147,7 @@
         <v>112.7404507272969</v>
       </c>
     </row>
-    <row r="242" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>302</v>
       </c>
@@ -20197,7 +20221,7 @@
         <v>93.289993233538326</v>
       </c>
     </row>
-    <row r="243" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>303</v>
       </c>
@@ -20271,7 +20295,7 @@
         <v>158.69111367478939</v>
       </c>
     </row>
-    <row r="244" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>304</v>
       </c>
@@ -20345,7 +20369,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="245" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>305</v>
       </c>
@@ -20419,7 +20443,7 @@
         <v>75.980599764319308</v>
       </c>
     </row>
-    <row r="246" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>306</v>
       </c>
@@ -20493,7 +20517,7 @@
         <v>93.862919356907469</v>
       </c>
     </row>
-    <row r="247" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>307</v>
       </c>
@@ -20567,7 +20591,7 @@
         <v>164.55043870642501</v>
       </c>
     </row>
-    <row r="248" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>308</v>
       </c>
@@ -20641,7 +20665,7 @@
         <v>219.314429688708</v>
       </c>
     </row>
-    <row r="249" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>309</v>
       </c>
@@ -20715,7 +20739,7 @@
         <v>162.70199029458669</v>
       </c>
     </row>
-    <row r="250" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>310</v>
       </c>
@@ -20789,7 +20813,7 @@
         <v>113.37610900108371</v>
       </c>
     </row>
-    <row r="251" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>311</v>
       </c>
@@ -20863,7 +20887,7 @@
         <v>144.51016470945731</v>
       </c>
     </row>
-    <row r="252" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>312</v>
       </c>
@@ -20937,7 +20961,7 @@
         <v>128.59148019201839</v>
       </c>
     </row>
-    <row r="253" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>313</v>
       </c>
@@ -21011,7 +21035,7 @@
         <v>319.70678369270291</v>
       </c>
     </row>
-    <row r="254" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>314</v>
       </c>
@@ -21085,7 +21109,7 @@
         <v>359.56457024134892</v>
       </c>
     </row>
-    <row r="255" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>315</v>
       </c>
@@ -21159,7 +21183,7 @@
         <v>127.5429905466479</v>
       </c>
     </row>
-    <row r="256" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>316</v>
       </c>
@@ -21233,7 +21257,7 @@
         <v>101.5961138983731</v>
       </c>
     </row>
-    <row r="257" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>317</v>
       </c>
@@ -21307,7 +21331,7 @@
         <v>125.68081368499119</v>
       </c>
     </row>
-    <row r="258" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>318</v>
       </c>
@@ -21381,7 +21405,7 @@
         <v>90.450109897248026</v>
       </c>
     </row>
-    <row r="259" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>319</v>
       </c>
@@ -21455,7 +21479,7 @@
         <v>199.18272244396229</v>
       </c>
     </row>
-    <row r="260" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>320</v>
       </c>
@@ -21529,7 +21553,7 @@
         <v>160.77552295627481</v>
       </c>
     </row>
-    <row r="261" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>321</v>
       </c>
@@ -21603,7 +21627,7 @@
         <v>145.52001052953301</v>
       </c>
     </row>
-    <row r="262" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>322</v>
       </c>
@@ -21683,7 +21707,7 @@
         <v>294.58927871678992</v>
       </c>
     </row>
-    <row r="263" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>323</v>
       </c>
@@ -21757,7 +21781,7 @@
         <v>161.81907022621249</v>
       </c>
     </row>
-    <row r="264" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>324</v>
       </c>
@@ -21831,7 +21855,7 @@
         <v>227.13025173710801</v>
       </c>
     </row>
-    <row r="265" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>325</v>
       </c>
@@ -21905,7 +21929,7 @@
         <v>156.20783990869691</v>
       </c>
     </row>
-    <row r="266" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>326</v>
       </c>
@@ -21979,7 +22003,7 @@
         <v>131.70476850044261</v>
       </c>
     </row>
-    <row r="267" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>327</v>
       </c>
@@ -22053,7 +22077,7 @@
         <v>54.798189839000607</v>
       </c>
     </row>
-    <row r="268" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>328</v>
       </c>
@@ -22127,7 +22151,7 @@
         <v>141.06474602801629</v>
       </c>
     </row>
-    <row r="269" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>329</v>
       </c>
@@ -22201,7 +22225,7 @@
         <v>98.916045986685234</v>
       </c>
     </row>
-    <row r="270" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>330</v>
       </c>
@@ -22275,7 +22299,7 @@
         <v>112.77870302183899</v>
       </c>
     </row>
-    <row r="271" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>331</v>
       </c>
@@ -22349,7 +22373,7 @@
         <v>83.073261537092876</v>
       </c>
     </row>
-    <row r="272" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>332</v>
       </c>
@@ -22423,7 +22447,7 @@
         <v>104.86313573951701</v>
       </c>
     </row>
-    <row r="273" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>333</v>
       </c>
@@ -22497,7 +22521,7 @@
         <v>110.8963640356049</v>
       </c>
     </row>
-    <row r="274" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>334</v>
       </c>
@@ -22571,7 +22595,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="275" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>335</v>
       </c>
@@ -22645,7 +22669,7 @@
         <v>208.7105631978016</v>
       </c>
     </row>
-    <row r="276" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>336</v>
       </c>
@@ -22719,7 +22743,7 @@
         <v>604.47974213244242</v>
       </c>
     </row>
-    <row r="277" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>337</v>
       </c>
@@ -22793,7 +22817,7 @@
         <v>254.8331705024672</v>
       </c>
     </row>
-    <row r="278" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>338</v>
       </c>
@@ -22867,7 +22891,7 @@
         <v>123.2791326554748</v>
       </c>
     </row>
-    <row r="279" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>339</v>
       </c>
@@ -22941,7 +22965,7 @@
         <v>233.5254162607676</v>
       </c>
     </row>
-    <row r="280" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>340</v>
       </c>
@@ -23015,7 +23039,7 @@
         <v>94.35512167785518</v>
       </c>
     </row>
-    <row r="281" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>341</v>
       </c>
@@ -23089,7 +23113,7 @@
         <v>116.3898143290761</v>
       </c>
     </row>
-    <row r="282" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>342</v>
       </c>
@@ -23163,7 +23187,7 @@
         <v>183.5637787596705</v>
       </c>
     </row>
-    <row r="283" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>343</v>
       </c>
@@ -23243,7 +23267,7 @@
         <v>159.54593055397669</v>
       </c>
     </row>
-    <row r="284" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>344</v>
       </c>
@@ -23317,7 +23341,7 @@
         <v>310.79411385385231</v>
       </c>
     </row>
-    <row r="285" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>345</v>
       </c>
@@ -23391,7 +23415,7 @@
         <v>255.59605471350821</v>
       </c>
     </row>
-    <row r="286" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>346</v>
       </c>
@@ -23465,7 +23489,7 @@
         <v>172.97357725085391</v>
       </c>
     </row>
-    <row r="287" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>347</v>
       </c>
@@ -23539,7 +23563,7 @@
         <v>220.1306276887405</v>
       </c>
     </row>
-    <row r="288" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>348</v>
       </c>
@@ -23613,7 +23637,7 @@
         <v>51.663406581690772</v>
       </c>
     </row>
-    <row r="289" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>349</v>
       </c>
@@ -23687,7 +23711,7 @@
         <v>153.8028903011531</v>
       </c>
     </row>
-    <row r="290" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>350</v>
       </c>
@@ -23761,7 +23785,7 @@
         <v>134.719465679199</v>
       </c>
     </row>
-    <row r="291" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>351</v>
       </c>
@@ -23835,7 +23859,7 @@
         <v>70.498446328980037</v>
       </c>
     </row>
-    <row r="292" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>353</v>
       </c>
@@ -23909,7 +23933,7 @@
         <v>105.59319519629349</v>
       </c>
     </row>
-    <row r="293" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>354</v>
       </c>
@@ -23983,7 +24007,7 @@
         <v>79.241719040456346</v>
       </c>
     </row>
-    <row r="294" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>355</v>
       </c>
@@ -24057,7 +24081,7 @@
         <v>208.10724036819281</v>
       </c>
     </row>
-    <row r="295" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>356</v>
       </c>
@@ -24131,7 +24155,7 @@
         <v>205.10651242689701</v>
       </c>
     </row>
-    <row r="296" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>357</v>
       </c>
@@ -24205,7 +24229,7 @@
         <v>228.5951995222843</v>
       </c>
     </row>
-    <row r="297" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>358</v>
       </c>
@@ -24279,7 +24303,7 @@
         <v>172.44588346019941</v>
       </c>
     </row>
-    <row r="298" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>359</v>
       </c>
@@ -24353,7 +24377,7 @@
         <v>178.73468050110691</v>
       </c>
     </row>
-    <row r="299" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>360</v>
       </c>
@@ -24427,7 +24451,7 @@
         <v>410.48192930725912</v>
       </c>
     </row>
-    <row r="300" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>361</v>
       </c>
@@ -24501,7 +24525,7 @@
         <v>256.6826712550739</v>
       </c>
     </row>
-    <row r="301" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>362</v>
       </c>
@@ -24575,7 +24599,7 @@
         <v>201.1014580576545</v>
       </c>
     </row>
-    <row r="302" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>363</v>
       </c>
@@ -24649,7 +24673,7 @@
         <v>317.69347175750158</v>
       </c>
     </row>
-    <row r="303" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>364</v>
       </c>
@@ -24723,7 +24747,7 @@
         <v>151.0338817759577</v>
       </c>
     </row>
-    <row r="304" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>365</v>
       </c>
@@ -24797,7 +24821,7 @@
         <v>147.57998293367629</v>
       </c>
     </row>
-    <row r="305" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>366</v>
       </c>
@@ -24871,7 +24895,7 @@
         <v>80.631586479090217</v>
       </c>
     </row>
-    <row r="306" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>367</v>
       </c>
@@ -24945,7 +24969,7 @@
         <v>257.0229891062985</v>
       </c>
     </row>
-    <row r="307" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>368</v>
       </c>
@@ -25019,7 +25043,7 @@
         <v>66.398877863509782</v>
       </c>
     </row>
-    <row r="308" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>369</v>
       </c>
@@ -25093,7 +25117,7 @@
         <v>363.01258328785173</v>
       </c>
     </row>
-    <row r="309" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>370</v>
       </c>
@@ -25173,7 +25197,7 @@
         <v>128.48769030793119</v>
       </c>
     </row>
-    <row r="310" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>371</v>
       </c>
@@ -25247,7 +25271,7 @@
         <v>145.8527263908021</v>
       </c>
     </row>
-    <row r="311" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>372</v>
       </c>
@@ -25321,7 +25345,7 @@
         <v>156.97130598034491</v>
       </c>
     </row>
-    <row r="312" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>373</v>
       </c>
@@ -25395,7 +25419,7 @@
         <v>140.81362161032479</v>
       </c>
     </row>
-    <row r="313" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>374</v>
       </c>
@@ -25469,7 +25493,7 @@
         <v>167.14765699632079</v>
       </c>
     </row>
-    <row r="314" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>375</v>
       </c>
@@ -25543,7 +25567,7 @@
         <v>179.70764507813541</v>
       </c>
     </row>
-    <row r="315" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>376</v>
       </c>
@@ -25617,7 +25641,7 @@
         <v>146.89238322553521</v>
       </c>
     </row>
-    <row r="316" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>377</v>
       </c>
@@ -25691,7 +25715,7 @@
         <v>272.97238765451101</v>
       </c>
     </row>
-    <row r="317" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>378</v>
       </c>
@@ -25765,7 +25789,7 @@
         <v>188.75536936136751</v>
       </c>
     </row>
-    <row r="318" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>379</v>
       </c>
@@ -25839,7 +25863,7 @@
         <v>111.04534135221979</v>
       </c>
     </row>
-    <row r="319" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>380</v>
       </c>
@@ -25913,7 +25937,7 @@
         <v>250.52729568043449</v>
       </c>
     </row>
-    <row r="320" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>381</v>
       </c>
@@ -25987,7 +26011,7 @@
         <v>185.07859506623839</v>
       </c>
     </row>
-    <row r="321" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>382</v>
       </c>
@@ -26061,7 +26085,7 @@
         <v>68.176176983658394</v>
       </c>
     </row>
-    <row r="322" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>383</v>
       </c>
@@ -26135,7 +26159,7 @@
         <v>184.82053246328701</v>
       </c>
     </row>
-    <row r="323" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>384</v>
       </c>
@@ -26209,7 +26233,7 @@
         <v>86.490561122003953</v>
       </c>
     </row>
-    <row r="324" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>385</v>
       </c>
@@ -26283,7 +26307,7 @@
         <v>207.67937186644571</v>
       </c>
     </row>
-    <row r="325" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>386</v>
       </c>
@@ -26357,7 +26381,7 @@
         <v>164.26222600688661</v>
       </c>
     </row>
-    <row r="326" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>387</v>
       </c>
@@ -26431,7 +26455,7 @@
         <v>244.55196378227279</v>
       </c>
     </row>
-    <row r="327" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>388</v>
       </c>
@@ -26505,7 +26529,7 @@
         <v>117.11210719588679</v>
       </c>
     </row>
-    <row r="328" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>389</v>
       </c>
@@ -26579,7 +26603,7 @@
         <v>166.28556179435839</v>
       </c>
     </row>
-    <row r="329" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>390</v>
       </c>
@@ -26653,7 +26677,7 @@
         <v>352.12426854247701</v>
       </c>
     </row>
-    <row r="330" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>391</v>
       </c>
@@ -26727,7 +26751,7 @@
         <v>167.37571231985919</v>
       </c>
     </row>
-    <row r="331" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>392</v>
       </c>
@@ -26801,7 +26825,7 @@
         <v>104.5558869099884</v>
       </c>
     </row>
-    <row r="332" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>393</v>
       </c>
@@ -26875,7 +26899,7 @@
         <v>137.58660347957351</v>
       </c>
     </row>
-    <row r="333" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>394</v>
       </c>
@@ -26949,7 +26973,7 @@
         <v>328.79086973804698</v>
       </c>
     </row>
-    <row r="334" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>395</v>
       </c>
@@ -27023,7 +27047,7 @@
         <v>274.59512532087689</v>
       </c>
     </row>
-    <row r="335" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>396</v>
       </c>
@@ -27097,7 +27121,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="336" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>397</v>
       </c>
@@ -27171,7 +27195,7 @@
         <v>134.82878072686941</v>
       </c>
     </row>
-    <row r="337" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>398</v>
       </c>
@@ -27245,7 +27269,7 @@
         <v>68.091022095396795</v>
       </c>
     </row>
-    <row r="338" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>399</v>
       </c>
@@ -27319,7 +27343,7 @@
         <v>158.35473396145409</v>
       </c>
     </row>
-    <row r="339" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>400</v>
       </c>
@@ -27393,7 +27417,7 @@
         <v>122.6670370848034</v>
       </c>
     </row>
-    <row r="340" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>401</v>
       </c>
@@ -27467,7 +27491,7 @@
         <v>105.31450796516771</v>
       </c>
     </row>
-    <row r="341" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>402</v>
       </c>
@@ -27541,7 +27565,7 @@
         <v>197.17294077692731</v>
       </c>
     </row>
-    <row r="342" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>403</v>
       </c>
@@ -27615,7 +27639,7 @@
         <v>100.8557100633009</v>
       </c>
     </row>
-    <row r="343" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>404</v>
       </c>
@@ -27689,7 +27713,7 @@
         <v>184.24086243039201</v>
       </c>
     </row>
-    <row r="344" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>405</v>
       </c>
@@ -27763,7 +27787,7 @@
         <v>186.12665075930951</v>
       </c>
     </row>
-    <row r="345" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>406</v>
       </c>
@@ -27837,7 +27861,7 @@
         <v>176.35776208555421</v>
       </c>
     </row>
-    <row r="346" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>407</v>
       </c>
@@ -27911,7 +27935,7 @@
         <v>347.70612532617702</v>
       </c>
     </row>
-    <row r="347" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>408</v>
       </c>
@@ -27991,7 +28015,7 @@
         <v>164.08620844256569</v>
       </c>
     </row>
-    <row r="348" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>409</v>
       </c>
@@ -28065,7 +28089,7 @@
         <v>286.45147602395218</v>
       </c>
     </row>
-    <row r="349" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>410</v>
       </c>
@@ -28145,7 +28169,7 @@
         <v>118.31875285510441</v>
       </c>
     </row>
-    <row r="350" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>411</v>
       </c>
@@ -28219,7 +28243,7 @@
         <v>119.8523303658659</v>
       </c>
     </row>
-    <row r="351" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>412</v>
       </c>
@@ -28293,7 +28317,7 @@
         <v>78.719310209583625</v>
       </c>
     </row>
-    <row r="352" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>413</v>
       </c>
@@ -28367,7 +28391,7 @@
         <v>204.22675066737099</v>
       </c>
     </row>
-    <row r="353" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>414</v>
       </c>
@@ -28441,7 +28465,7 @@
         <v>215.8208972363509</v>
       </c>
     </row>
-    <row r="354" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>415</v>
       </c>
@@ -28515,7 +28539,7 @@
         <v>300.12961245339011</v>
       </c>
     </row>
-    <row r="355" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>416</v>
       </c>
@@ -28589,7 +28613,7 @@
         <v>122.1384403924194</v>
       </c>
     </row>
-    <row r="356" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>417</v>
       </c>
@@ -28663,7 +28687,7 @@
         <v>158.63705264943189</v>
       </c>
     </row>
-    <row r="357" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>418</v>
       </c>
@@ -28737,7 +28761,7 @@
         <v>80.336900889886877</v>
       </c>
     </row>
-    <row r="358" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>419</v>
       </c>
@@ -28811,7 +28835,7 @@
         <v>113.27434714291221</v>
       </c>
     </row>
-    <row r="359" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>420</v>
       </c>
@@ -28885,7 +28909,7 @@
         <v>239.05412388163541</v>
       </c>
     </row>
-    <row r="360" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>421</v>
       </c>
@@ -28959,7 +28983,7 @@
         <v>102.8174539377097</v>
       </c>
     </row>
-    <row r="361" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>422</v>
       </c>
@@ -29033,7 +29057,7 @@
         <v>467.31162519694283</v>
       </c>
     </row>
-    <row r="362" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>423</v>
       </c>
@@ -29107,7 +29131,7 @@
         <v>85.036676695634668</v>
       </c>
     </row>
-    <row r="363" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>424</v>
       </c>
@@ -29181,7 +29205,7 @@
         <v>80.906838366367666</v>
       </c>
     </row>
-    <row r="364" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>425</v>
       </c>
@@ -29255,7 +29279,7 @@
         <v>111.3354221618403</v>
       </c>
     </row>
-    <row r="365" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>426</v>
       </c>
@@ -29329,7 +29353,7 @@
         <v>103.20824801643739</v>
       </c>
     </row>
-    <row r="366" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>427</v>
       </c>
@@ -29403,7 +29427,7 @@
         <v>336.13846997512837</v>
       </c>
     </row>
-    <row r="367" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>428</v>
       </c>
@@ -29477,7 +29501,7 @@
         <v>273.45956466145083</v>
       </c>
     </row>
-    <row r="368" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>429</v>
       </c>
@@ -29551,7 +29575,7 @@
         <v>198.7312531027672</v>
       </c>
     </row>
-    <row r="369" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>430</v>
       </c>
@@ -29625,7 +29649,7 @@
         <v>149.47188811001021</v>
       </c>
     </row>
-    <row r="370" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>431</v>
       </c>
@@ -29699,7 +29723,7 @@
         <v>129.98576923008969</v>
       </c>
     </row>
-    <row r="371" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>432</v>
       </c>
@@ -29773,7 +29797,7 @@
         <v>128.006514756874</v>
       </c>
     </row>
-    <row r="372" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>433</v>
       </c>
@@ -29847,7 +29871,7 @@
         <v>160.36782706985559</v>
       </c>
     </row>
-    <row r="373" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>434</v>
       </c>
@@ -29921,7 +29945,7 @@
         <v>104.7791978121185</v>
       </c>
     </row>
-    <row r="374" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>435</v>
       </c>
@@ -29995,7 +30019,7 @@
         <v>115.6244521906373</v>
       </c>
     </row>
-    <row r="375" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>436</v>
       </c>
@@ -30069,7 +30093,7 @@
         <v>203.07910223363899</v>
       </c>
     </row>
-    <row r="376" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>437</v>
       </c>
@@ -30143,7 +30167,7 @@
         <v>368.91854098832738</v>
       </c>
     </row>
-    <row r="377" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>438</v>
       </c>
@@ -30217,7 +30241,7 @@
         <v>177.48322310659361</v>
       </c>
     </row>
-    <row r="378" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>439</v>
       </c>
@@ -30291,7 +30315,7 @@
         <v>176.02738915281421</v>
       </c>
     </row>
-    <row r="379" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>440</v>
       </c>
@@ -30365,7 +30389,7 @@
         <v>133.61951815019421</v>
       </c>
     </row>
-    <row r="380" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>441</v>
       </c>
@@ -30439,7 +30463,7 @@
         <v>112.5774123849216</v>
       </c>
     </row>
-    <row r="381" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>442</v>
       </c>
@@ -30513,7 +30537,7 @@
         <v>109.88566799816969</v>
       </c>
     </row>
-    <row r="382" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>443</v>
       </c>
@@ -30587,7 +30611,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="383" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>444</v>
       </c>
@@ -30661,7 +30685,7 @@
         <v>280.93192550885391</v>
       </c>
     </row>
-    <row r="384" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>445</v>
       </c>
@@ -30735,7 +30759,7 @@
         <v>91.461622175887598</v>
       </c>
     </row>
-    <row r="385" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>446</v>
       </c>
@@ -30809,7 +30833,7 @@
         <v>120.8448625242259</v>
       </c>
     </row>
-    <row r="386" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>447</v>
       </c>
@@ -30883,7 +30907,7 @@
         <v>112.6162797887733</v>
       </c>
     </row>
-    <row r="387" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>448</v>
       </c>
@@ -30957,7 +30981,7 @@
         <v>380.19715490603801</v>
       </c>
     </row>
-    <row r="388" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>449</v>
       </c>
@@ -31031,7 +31055,7 @@
         <v>267.81347002881489</v>
       </c>
     </row>
-    <row r="389" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>450</v>
       </c>
@@ -31105,7 +31129,7 @@
         <v>117.6913027117081</v>
       </c>
     </row>
-    <row r="390" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>451</v>
       </c>
@@ -31185,7 +31209,7 @@
         <v>160.82176946925239</v>
       </c>
     </row>
-    <row r="391" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>452</v>
       </c>
@@ -31259,7 +31283,7 @@
         <v>119.6452731053465</v>
       </c>
     </row>
-    <row r="392" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>453</v>
       </c>
@@ -31333,7 +31357,7 @@
         <v>310.96619273993292</v>
       </c>
     </row>
-    <row r="393" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>454</v>
       </c>
@@ -31413,7 +31437,7 @@
         <v>148.04820016338081</v>
       </c>
     </row>
-    <row r="394" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>455</v>
       </c>
@@ -31487,7 +31511,7 @@
         <v>91.264648152826624</v>
       </c>
     </row>
-    <row r="395" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>456</v>
       </c>
@@ -31561,7 +31585,7 @@
         <v>70.219008987203779</v>
       </c>
     </row>
-    <row r="396" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>457</v>
       </c>
@@ -31635,7 +31659,7 @@
         <v>331.24295307467662</v>
       </c>
     </row>
-    <row r="397" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>458</v>
       </c>
@@ -31709,7 +31733,7 @@
         <v>251.38739848099121</v>
       </c>
     </row>
-    <row r="398" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>459</v>
       </c>
@@ -31783,7 +31807,7 @@
         <v>113.50523221044919</v>
       </c>
     </row>
-    <row r="399" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>460</v>
       </c>
@@ -31857,7 +31881,7 @@
         <v>100.0218275806631</v>
       </c>
     </row>
-    <row r="400" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>461</v>
       </c>
@@ -31931,7 +31955,7 @@
         <v>174.93910184496499</v>
       </c>
     </row>
-    <row r="401" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>462</v>
       </c>
@@ -32005,7 +32029,7 @@
         <v>103.58738187400949</v>
       </c>
     </row>
-    <row r="402" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>463</v>
       </c>
@@ -32079,7 +32103,7 @@
         <v>131.64434735445479</v>
       </c>
     </row>
-    <row r="403" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>464</v>
       </c>
@@ -32153,7 +32177,7 @@
         <v>164.8018880358089</v>
       </c>
     </row>
-    <row r="404" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>465</v>
       </c>
@@ -32227,7 +32251,7 @@
         <v>157.50424449717059</v>
       </c>
     </row>
-    <row r="405" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>466</v>
       </c>
@@ -32301,7 +32325,7 @@
         <v>124.0600440897384</v>
       </c>
     </row>
-    <row r="406" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>467</v>
       </c>
@@ -32375,7 +32399,7 @@
         <v>116.9630688995401</v>
       </c>
     </row>
-    <row r="407" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>468</v>
       </c>
@@ -32449,7 +32473,7 @@
         <v>109.5817955680559</v>
       </c>
     </row>
-    <row r="408" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>469</v>
       </c>
@@ -32523,7 +32547,7 @@
         <v>102.8648015024018</v>
       </c>
     </row>
-    <row r="409" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>470</v>
       </c>
@@ -32597,7 +32621,7 @@
         <v>98.140645234237923</v>
       </c>
     </row>
-    <row r="410" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>471</v>
       </c>
@@ -32671,7 +32695,7 @@
         <v>256.02957986103138</v>
       </c>
     </row>
-    <row r="411" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>472</v>
       </c>
@@ -32745,7 +32769,7 @@
         <v>100.56491121448271</v>
       </c>
     </row>
-    <row r="412" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>473</v>
       </c>
@@ -32819,7 +32843,7 @@
         <v>199.9237757209462</v>
       </c>
     </row>
-    <row r="413" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>474</v>
       </c>
@@ -32893,7 +32917,7 @@
         <v>189.671614604957</v>
       </c>
     </row>
-    <row r="414" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>475</v>
       </c>
@@ -32967,7 +32991,7 @@
         <v>142.5404215414307</v>
       </c>
     </row>
-    <row r="415" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>476</v>
       </c>
@@ -33041,7 +33065,7 @@
         <v>101.86802926362169</v>
       </c>
     </row>
-    <row r="416" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>477</v>
       </c>
@@ -33121,7 +33145,7 @@
         <v>143.33988151007929</v>
       </c>
     </row>
-    <row r="417" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>478</v>
       </c>
@@ -33195,7 +33219,7 @@
         <v>120.12298883268819</v>
       </c>
     </row>
-    <row r="418" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>479</v>
       </c>
@@ -33269,7 +33293,7 @@
         <v>42.709565296662319</v>
       </c>
     </row>
-    <row r="419" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>480</v>
       </c>
@@ -33343,7 +33367,7 @@
         <v>174.5550212269026</v>
       </c>
     </row>
-    <row r="420" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>481</v>
       </c>
@@ -33417,7 +33441,7 @@
         <v>427.640121407636</v>
       </c>
     </row>
-    <row r="421" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>482</v>
       </c>
@@ -33491,7 +33515,7 @@
         <v>130.9224736629171</v>
       </c>
     </row>
-    <row r="422" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>483</v>
       </c>
@@ -33565,7 +33589,7 @@
         <v>167.95957613329401</v>
       </c>
     </row>
-    <row r="423" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>484</v>
       </c>
@@ -33639,7 +33663,7 @@
         <v>194.10294307307379</v>
       </c>
     </row>
-    <row r="424" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>485</v>
       </c>
@@ -33713,7 +33737,7 @@
         <v>202.3787822842373</v>
       </c>
     </row>
-    <row r="425" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>486</v>
       </c>
@@ -33787,7 +33811,7 @@
         <v>98.736023193239902</v>
       </c>
     </row>
-    <row r="426" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>487</v>
       </c>
@@ -33861,7 +33885,7 @@
         <v>64.31187028180635</v>
       </c>
     </row>
-    <row r="427" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>488</v>
       </c>
@@ -33935,7 +33959,7 @@
         <v>125.05208232116139</v>
       </c>
     </row>
-    <row r="428" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>489</v>
       </c>
@@ -34009,7 +34033,7 @@
         <v>145.8235296196118</v>
       </c>
     </row>
-    <row r="429" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>490</v>
       </c>
@@ -34083,7 +34107,7 @@
         <v>196.1737779293214</v>
       </c>
     </row>
-    <row r="430" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>491</v>
       </c>
@@ -34157,7 +34181,7 @@
         <v>176.98963725077621</v>
       </c>
     </row>
-    <row r="431" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>492</v>
       </c>
@@ -34231,7 +34255,7 @@
         <v>656.88713612601521</v>
       </c>
     </row>
-    <row r="432" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>493</v>
       </c>
@@ -34305,7 +34329,7 @@
         <v>77.282803270654384</v>
       </c>
     </row>
-    <row r="433" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>494</v>
       </c>
@@ -34379,7 +34403,7 @@
         <v>577.61723937745774</v>
       </c>
     </row>
-    <row r="434" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>495</v>
       </c>
@@ -34453,7 +34477,7 @@
         <v>129.00715442397311</v>
       </c>
     </row>
-    <row r="435" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>496</v>
       </c>
@@ -34527,7 +34551,7 @@
         <v>168.31114946813489</v>
       </c>
     </row>
-    <row r="436" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>497</v>
       </c>
@@ -34601,7 +34625,7 @@
         <v>125.15525761138601</v>
       </c>
     </row>
-    <row r="437" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>498</v>
       </c>
@@ -34675,7 +34699,7 @@
         <v>134.7199520729915</v>
       </c>
     </row>
-    <row r="438" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>499</v>
       </c>
@@ -34749,7 +34773,7 @@
         <v>280.25283617012178</v>
       </c>
     </row>
-    <row r="439" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>500</v>
       </c>
@@ -34829,7 +34853,7 @@
         <v>239.93825631582629</v>
       </c>
     </row>
-    <row r="440" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>501</v>
       </c>
@@ -34903,7 +34927,7 @@
         <v>247.8567154150798</v>
       </c>
     </row>
-    <row r="441" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>502</v>
       </c>
@@ -34977,7 +35001,7 @@
         <v>137.05384145008131</v>
       </c>
     </row>
-    <row r="442" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>503</v>
       </c>
@@ -35051,7 +35075,7 @@
         <v>134.14087677905101</v>
       </c>
     </row>
-    <row r="443" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>504</v>
       </c>
@@ -35125,7 +35149,7 @@
         <v>576.49501570761265</v>
       </c>
     </row>
-    <row r="444" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>505</v>
       </c>
@@ -35199,7 +35223,7 @@
         <v>244.68128012185991</v>
       </c>
     </row>
-    <row r="445" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>506</v>
       </c>
@@ -35273,7 +35297,7 @@
         <v>139.40018044413699</v>
       </c>
     </row>
-    <row r="446" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>507</v>
       </c>
@@ -35347,7 +35371,7 @@
         <v>562.89458642860859</v>
       </c>
     </row>
-    <row r="447" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>508</v>
       </c>
@@ -35421,7 +35445,7 @@
         <v>161.4088543386959</v>
       </c>
     </row>
-    <row r="448" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>509</v>
       </c>
@@ -35495,7 +35519,7 @@
         <v>360.98296661041621</v>
       </c>
     </row>
-    <row r="449" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>510</v>
       </c>
@@ -35569,7 +35593,7 @@
         <v>769.32437483065701</v>
       </c>
     </row>
-    <row r="450" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>511</v>
       </c>
@@ -35643,7 +35667,7 @@
         <v>326.16304159293878</v>
       </c>
     </row>
-    <row r="451" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>512</v>
       </c>
@@ -35717,7 +35741,7 @@
         <v>709.82514616928893</v>
       </c>
     </row>
-    <row r="452" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>513</v>
       </c>
@@ -35791,7 +35815,7 @@
         <v>594.03073802994425</v>
       </c>
     </row>
-    <row r="453" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>514</v>
       </c>
@@ -35865,7 +35889,7 @@
         <v>260.11087882441421</v>
       </c>
     </row>
-    <row r="454" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>515</v>
       </c>
@@ -35939,7 +35963,7 @@
         <v>204.42506922971759</v>
       </c>
     </row>
-    <row r="455" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>516</v>
       </c>
@@ -36013,7 +36037,7 @@
         <v>884.85383954248869</v>
       </c>
     </row>
-    <row r="456" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>517</v>
       </c>
@@ -36087,7 +36111,7 @@
         <v>261.62706174559571</v>
       </c>
     </row>
-    <row r="457" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>518</v>
       </c>
@@ -36161,7 +36185,7 @@
         <v>257.57095449932228</v>
       </c>
     </row>
-    <row r="458" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>519</v>
       </c>
@@ -36235,7 +36259,7 @@
         <v>217.51610061209001</v>
       </c>
     </row>
-    <row r="459" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>520</v>
       </c>
@@ -36309,7 +36333,7 @@
         <v>76.699022146797731</v>
       </c>
     </row>
-    <row r="460" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>521</v>
       </c>
@@ -36383,7 +36407,7 @@
         <v>492.66338266344451</v>
       </c>
     </row>
-    <row r="461" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>522</v>
       </c>
@@ -36457,7 +36481,7 @@
         <v>377.34587269362328</v>
       </c>
     </row>
-    <row r="462" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>523</v>
       </c>
@@ -36531,7 +36555,7 @@
         <v>346.97417119513858</v>
       </c>
     </row>
-    <row r="463" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>524</v>
       </c>
@@ -36605,7 +36629,7 @@
         <v>234.45940943050229</v>
       </c>
     </row>
-    <row r="464" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>525</v>
       </c>
@@ -36679,7 +36703,7 @@
         <v>890.58721531387141</v>
       </c>
     </row>
-    <row r="465" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>526</v>
       </c>
@@ -36759,7 +36783,7 @@
         <v>938.95175486162361</v>
       </c>
     </row>
-    <row r="466" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>527</v>
       </c>
@@ -36833,7 +36857,7 @@
         <v>332.30902259543518</v>
       </c>
     </row>
-    <row r="467" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>528</v>
       </c>
@@ -36907,7 +36931,7 @@
         <v>1275.2214856402429</v>
       </c>
     </row>
-    <row r="468" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>529</v>
       </c>
@@ -36981,7 +37005,7 @@
         <v>175.85286349090171</v>
       </c>
     </row>
-    <row r="469" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>530</v>
       </c>
@@ -37055,7 +37079,7 @@
         <v>266.40911398325488</v>
       </c>
     </row>
-    <row r="470" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>531</v>
       </c>
@@ -37129,7 +37153,7 @@
         <v>318.12006564944869</v>
       </c>
     </row>
-    <row r="471" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>532</v>
       </c>
@@ -37203,7 +37227,7 @@
         <v>530.29594710740059</v>
       </c>
     </row>
-    <row r="472" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>533</v>
       </c>
@@ -37277,7 +37301,7 @@
         <v>291.51868575342672</v>
       </c>
     </row>
-    <row r="473" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>534</v>
       </c>
@@ -37351,7 +37375,7 @@
         <v>167.0698122398918</v>
       </c>
     </row>
-    <row r="474" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>535</v>
       </c>
@@ -37425,7 +37449,7 @@
         <v>717.37780014292821</v>
       </c>
     </row>
-    <row r="475" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>536</v>
       </c>
@@ -37499,7 +37523,7 @@
         <v>291.13928676522801</v>
       </c>
     </row>
-    <row r="476" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>537</v>
       </c>
@@ -37573,7 +37597,7 @@
         <v>419.09035913258231</v>
       </c>
     </row>
-    <row r="477" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>538</v>
       </c>
@@ -37647,7 +37671,7 @@
         <v>205.93983911928569</v>
       </c>
     </row>
-    <row r="478" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>539</v>
       </c>
@@ -37721,7 +37745,7 @@
         <v>589.53376492028917</v>
       </c>
     </row>
-    <row r="479" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>540</v>
       </c>
@@ -37795,7 +37819,7 @@
         <v>476.23689015763432</v>
       </c>
     </row>
-    <row r="480" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>541</v>
       </c>
@@ -37869,7 +37893,7 @@
         <v>128.95010514721491</v>
       </c>
     </row>
-    <row r="481" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>542</v>
       </c>
@@ -37943,7 +37967,7 @@
         <v>455.05554627272278</v>
       </c>
     </row>
-    <row r="482" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>543</v>
       </c>
@@ -38017,7 +38041,7 @@
         <v>200.25379990695191</v>
       </c>
     </row>
-    <row r="483" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>544</v>
       </c>
@@ -38091,7 +38115,7 @@
         <v>220.17683914012781</v>
       </c>
     </row>
-    <row r="484" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>545</v>
       </c>
@@ -38165,7 +38189,7 @@
         <v>273.05106908205579</v>
       </c>
     </row>
-    <row r="485" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>546</v>
       </c>
@@ -38239,7 +38263,7 @@
         <v>338.24870098237488</v>
       </c>
     </row>
-    <row r="486" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>547</v>
       </c>
@@ -38319,7 +38343,7 @@
         <v>346.45806139834309</v>
       </c>
     </row>
-    <row r="487" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>548</v>
       </c>
@@ -38393,7 +38417,7 @@
         <v>610.72570654230105</v>
       </c>
     </row>
-    <row r="488" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>549</v>
       </c>
@@ -38467,7 +38491,7 @@
         <v>74.462584452840204</v>
       </c>
     </row>
-    <row r="489" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>550</v>
       </c>
@@ -38541,7 +38565,7 @@
         <v>68.438792592746978</v>
       </c>
     </row>
-    <row r="490" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>551</v>
       </c>
@@ -38615,7 +38639,7 @@
         <v>1846.912880948908</v>
       </c>
     </row>
-    <row r="491" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>552</v>
       </c>
@@ -38689,7 +38713,7 @@
         <v>196.23266519311019</v>
       </c>
     </row>
-    <row r="492" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>553</v>
       </c>
@@ -38763,7 +38787,7 @@
         <v>368.26714457750887</v>
       </c>
     </row>
-    <row r="493" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>554</v>
       </c>
@@ -38837,7 +38861,7 @@
         <v>205.90239378153049</v>
       </c>
     </row>
-    <row r="494" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>555</v>
       </c>
@@ -38911,7 +38935,7 @@
         <v>272.37987906568941</v>
       </c>
     </row>
-    <row r="495" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>556</v>
       </c>
@@ -38985,7 +39009,7 @@
         <v>610.95179160044552</v>
       </c>
     </row>
-    <row r="496" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>557</v>
       </c>
@@ -39059,7 +39083,7 @@
         <v>294.61958362903971</v>
       </c>
     </row>
-    <row r="497" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>558</v>
       </c>
@@ -39133,7 +39157,7 @@
         <v>488.01097607631499</v>
       </c>
     </row>
-    <row r="498" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>559</v>
       </c>
@@ -39207,7 +39231,7 @@
         <v>271.24556793803009</v>
       </c>
     </row>
-    <row r="499" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>560</v>
       </c>
@@ -39281,7 +39305,7 @@
         <v>315.50136481190958</v>
       </c>
     </row>
-    <row r="500" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>561</v>
       </c>
@@ -39355,7 +39379,7 @@
         <v>489.88324296407399</v>
       </c>
     </row>
-    <row r="501" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>562</v>
       </c>
@@ -39429,7 +39453,7 @@
         <v>419.75801656991518</v>
       </c>
     </row>
-    <row r="502" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>563</v>
       </c>
@@ -39503,7 +39527,7 @@
         <v>675.86293134114726</v>
       </c>
     </row>
-    <row r="503" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>564</v>
       </c>
@@ -39574,7 +39598,7 @@
         <v>221.9</v>
       </c>
     </row>
-    <row r="504" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>565</v>
       </c>
@@ -39645,7 +39669,7 @@
         <v>295.5</v>
       </c>
     </row>
-    <row r="505" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>566</v>
       </c>
@@ -39716,7 +39740,7 @@
         <v>373.2</v>
       </c>
     </row>
-    <row r="506" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>567</v>
       </c>
@@ -39787,7 +39811,7 @@
         <v>334.4</v>
       </c>
     </row>
-    <row r="507" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>568</v>
       </c>
@@ -39858,7 +39882,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="508" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>569</v>
       </c>
@@ -39929,7 +39953,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="509" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>570</v>
       </c>
@@ -40000,7 +40024,7 @@
         <v>92.7</v>
       </c>
     </row>
-    <row r="510" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>571</v>
       </c>
@@ -40071,7 +40095,7 @@
         <v>186.9</v>
       </c>
     </row>
-    <row r="511" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>572</v>
       </c>
@@ -40142,7 +40166,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="512" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>573</v>
       </c>
@@ -40213,7 +40237,7 @@
         <v>179.9</v>
       </c>
     </row>
-    <row r="513" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>574</v>
       </c>
@@ -40284,7 +40308,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="514" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>575</v>
       </c>
@@ -40355,7 +40379,7 @@
         <v>443.2</v>
       </c>
     </row>
-    <row r="515" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>576</v>
       </c>
@@ -40426,7 +40450,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="516" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>577</v>
       </c>
@@ -40497,7 +40521,7 @@
         <v>385.1</v>
       </c>
     </row>
-    <row r="517" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>578</v>
       </c>
@@ -40568,7 +40592,7 @@
         <v>172.6</v>
       </c>
     </row>
-    <row r="518" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>579</v>
       </c>
@@ -40630,7 +40654,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="519" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>580</v>
       </c>
@@ -40692,7 +40716,7 @@
         <v>24.52</v>
       </c>
     </row>
-    <row r="520" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>581</v>
       </c>
@@ -40754,7 +40778,7 @@
         <v>104.6</v>
       </c>
     </row>
-    <row r="521" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>582</v>
       </c>
@@ -40816,7 +40840,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>583</v>
       </c>
@@ -40878,7 +40902,7 @@
         <v>42.38</v>
       </c>
     </row>
-    <row r="523" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>584</v>
       </c>
@@ -40940,7 +40964,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="524" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>585</v>
       </c>
@@ -41012,23 +41036,23 @@
   <dimension ref="A1:K516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>586</v>
       </c>
@@ -41063,7 +41087,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -41092,7 +41116,7 @@
         <v>3.6352370545999999E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -41121,7 +41145,7 @@
         <v>1.25846997255E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -41150,7 +41174,7 @@
         <v>1.16108208181E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -41179,7 +41203,7 @@
         <v>1.517348142037895E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -41208,7 +41232,7 @@
         <v>6.2118251391200002E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -41237,7 +41261,7 @@
         <v>5.1083055360390999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -41266,7 +41290,7 @@
         <v>2.4713455135080001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -41295,7 +41319,7 @@
         <v>9.1682718559970324E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -41324,7 +41348,7 @@
         <v>1.6726383838999999E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -41353,7 +41377,7 @@
         <v>8.8086710680081079E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -41382,7 +41406,7 @@
         <v>3.2905763418000001E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -41411,7 +41435,7 @@
         <v>3.5009933975999997E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -41440,7 +41464,7 @@
         <v>2.2790884667000001E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -41469,7 +41493,7 @@
         <v>2.4340908639421152E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -41498,7 +41522,7 @@
         <v>4.9477274129689311E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -41527,7 +41551,7 @@
         <v>1.5271607781484999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -41556,7 +41580,7 @@
         <v>1.2792734692809799E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -41585,7 +41609,7 @@
         <v>3.8936708498699997E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -41614,7 +41638,7 @@
         <v>6.2392739371000002E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -41643,7 +41667,7 @@
         <v>1.8564437339748999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -41672,7 +41696,7 @@
         <v>1.1865681770999999E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -41701,7 +41725,7 @@
         <v>1.2216288141799999E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -41730,7 +41754,7 @@
         <v>4.0320766425609998E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -41759,7 +41783,7 @@
         <v>3.2372246524591999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -41788,7 +41812,7 @@
         <v>3.2466799027909999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -41817,7 +41841,7 @@
         <v>3.6683467692999998E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -41846,7 +41870,7 @@
         <v>3.6777242528384442E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -41875,7 +41899,7 @@
         <v>1.8487177459916269E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -41904,7 +41928,7 @@
         <v>4.1225800946000002E-6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -41933,7 +41957,7 @@
         <v>6.6817405424000001E-6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -41962,7 +41986,7 @@
         <v>1.3896923589094381E-7</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -41991,7 +42015,7 @@
         <v>2.0507212481999998E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -42020,7 +42044,7 @@
         <v>7.0123215960742346E-7</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -42049,7 +42073,7 @@
         <v>6.9665220953999998E-6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -42078,7 +42102,7 @@
         <v>1.8160233957435999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -42107,7 +42131,7 @@
         <v>6.2878796663099994E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -42136,7 +42160,7 @@
         <v>9.0419562498499998E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -42165,7 +42189,7 @@
         <v>5.5845981964700001E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -42194,7 +42218,7 @@
         <v>7.2815540072000002E-6</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -42223,7 +42247,7 @@
         <v>1.37657318102E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -42252,7 +42276,7 @@
         <v>1.3668268532E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -42281,7 +42305,7 @@
         <v>2.2452156373999999E-6</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -42310,7 +42334,7 @@
         <v>1.0872611082E-6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -42339,7 +42363,7 @@
         <v>1.6248488748399998E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -42368,7 +42392,7 @@
         <v>1.8150450347599999E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -42397,7 +42421,7 @@
         <v>7.2307042846445402E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -42426,7 +42450,7 @@
         <v>2.2541372214099999E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -42455,7 +42479,7 @@
         <v>1.46895657655E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -42484,7 +42508,7 @@
         <v>2.9959369701026001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -42513,7 +42537,7 @@
         <v>3.2112878688099997E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -42542,7 +42566,7 @@
         <v>1.21891417313E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -42571,7 +42595,7 @@
         <v>9.6937149108600003E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -42600,7 +42624,7 @@
         <v>6.0988510395132159E-7</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -42629,7 +42653,7 @@
         <v>1.10636115062E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -42658,7 +42682,7 @@
         <v>4.1954638726527922E-7</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -42687,7 +42711,7 @@
         <v>7.4469008105800002E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -42716,7 +42740,7 @@
         <v>0.22025774345630611</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -42745,7 +42769,7 @@
         <v>1.38086277379E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -42774,7 +42798,7 @@
         <v>7.3654927462900001E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -42803,7 +42827,7 @@
         <v>4.1660216515986802E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -42832,7 +42856,7 @@
         <v>1.6065719539999999E-6</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -42861,7 +42885,7 @@
         <v>4.1156588573160001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -42890,7 +42914,7 @@
         <v>3.7377347662999999E-6</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -42919,7 +42943,7 @@
         <v>3.8427440393699999E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -42948,7 +42972,7 @@
         <v>1.3987799967E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -42977,7 +43001,7 @@
         <v>2.6964140611049998E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -43006,7 +43030,7 @@
         <v>1.0843012517E-6</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -43035,7 +43059,7 @@
         <v>3.0765444659970002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>130</v>
       </c>
@@ -43064,7 +43088,7 @@
         <v>6.4305701078999996E-6</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>131</v>
       </c>
@@ -43093,7 +43117,7 @@
         <v>7.4415828777499996E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -43122,7 +43146,7 @@
         <v>5.8140880627999998E-6</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -43151,7 +43175,7 @@
         <v>1.7782289627438241E-7</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>134</v>
       </c>
@@ -43180,7 +43204,7 @@
         <v>1.5725448038299999E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -43209,7 +43233,7 @@
         <v>1.24232856247E-5</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -43238,7 +43262,7 @@
         <v>1.02952860664E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>137</v>
       </c>
@@ -43267,7 +43291,7 @@
         <v>1.5621680162E-6</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>138</v>
       </c>
@@ -43296,7 +43320,7 @@
         <v>4.1153468053059999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>139</v>
       </c>
@@ -43325,7 +43349,7 @@
         <v>1.6508334952669999E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>140</v>
       </c>
@@ -43354,7 +43378,7 @@
         <v>1.992668461276E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -43383,7 +43407,7 @@
         <v>1.5825958093821E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -43412,7 +43436,7 @@
         <v>1.8296091688588E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -43441,7 +43465,7 @@
         <v>1.3507050752188999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>144</v>
       </c>
@@ -43470,7 +43494,7 @@
         <v>8.7918169989190001E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -43499,7 +43523,7 @@
         <v>2.3591029041150001E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>146</v>
       </c>
@@ -43528,7 +43552,7 @@
         <v>1.2483637309239999E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -43557,7 +43581,7 @@
         <v>6.3706682699800002E-5</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -43586,7 +43610,7 @@
         <v>1.637245750235E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>149</v>
       </c>
@@ -43615,7 +43639,7 @@
         <v>3.3252956942000002E-6</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>150</v>
       </c>
@@ -43644,7 +43668,7 @@
         <v>9.5869254544945367E-7</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>151</v>
       </c>
@@ -43673,7 +43697,7 @@
         <v>1.1503865068257681E-7</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -43702,7 +43726,7 @@
         <v>1.2412864237093999E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -43731,7 +43755,7 @@
         <v>2.497570075286E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>154</v>
       </c>
@@ -43760,7 +43784,7 @@
         <v>5.0379443564840804E-7</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>155</v>
       </c>
@@ -43789,7 +43813,7 @@
         <v>1.1495793520199999E-5</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -43818,7 +43842,7 @@
         <v>3.3766943680729999E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>157</v>
       </c>
@@ -43847,7 +43871,7 @@
         <v>6.1477438352100001E-5</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>158</v>
       </c>
@@ -43876,7 +43900,7 @@
         <v>2.9344886576500001E-5</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>159</v>
       </c>
@@ -43905,7 +43929,7 @@
         <v>4.6276297920619998E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -43934,7 +43958,7 @@
         <v>4.3622239620987812E-7</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>161</v>
       </c>
@@ -43963,7 +43987,7 @@
         <v>7.0241995611322873E-7</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>162</v>
       </c>
@@ -43992,7 +44016,7 @@
         <v>5.8107593095982244E-7</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -44021,7 +44045,7 @@
         <v>1.8733610621074E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>164</v>
       </c>
@@ -44050,7 +44074,7 @@
         <v>1.1914823625999999E-6</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>165</v>
       </c>
@@ -44079,7 +44103,7 @@
         <v>0.6535005882682916</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>166</v>
       </c>
@@ -44108,7 +44132,7 @@
         <v>3.8751648974000001E-6</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>167</v>
       </c>
@@ -44137,7 +44161,7 @@
         <v>4.0484981249756799E-7</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>168</v>
       </c>
@@ -44166,7 +44190,7 @@
         <v>1.0247144290200001E-5</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>169</v>
       </c>
@@ -44195,7 +44219,7 @@
         <v>1.76551044925E-5</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>170</v>
       </c>
@@ -44224,7 +44248,7 @@
         <v>5.6788960323000004E-6</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>171</v>
       </c>
@@ -44253,7 +44277,7 @@
         <v>3.7929227390220001E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>172</v>
       </c>
@@ -44282,7 +44306,7 @@
         <v>6.6285238913445337E-7</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>173</v>
       </c>
@@ -44311,7 +44335,7 @@
         <v>3.7713180514E-6</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>174</v>
       </c>
@@ -44340,7 +44364,7 @@
         <v>1.2029460897999999E-6</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>175</v>
       </c>
@@ -44369,7 +44393,7 @@
         <v>6.9695966255000002E-6</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>176</v>
       </c>
@@ -44398,7 +44422,7 @@
         <v>4.0806835701700003E-5</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>177</v>
       </c>
@@ -44427,7 +44451,7 @@
         <v>3.6990871104000002E-6</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>178</v>
       </c>
@@ -44456,7 +44480,7 @@
         <v>4.7776883923026384E-7</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>179</v>
       </c>
@@ -44485,7 +44509,7 @@
         <v>3.5588344125831378E-7</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>180</v>
       </c>
@@ -44514,7 +44538,7 @@
         <v>3.3062707986000002E-6</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>181</v>
       </c>
@@ -44543,7 +44567,7 @@
         <v>3.0841207287500002E-5</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>182</v>
       </c>
@@ -44572,7 +44596,7 @@
         <v>1.0516127584644701E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>183</v>
       </c>
@@ -44601,7 +44625,7 @@
         <v>9.4183131703000007E-6</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>184</v>
       </c>
@@ -44630,7 +44654,7 @@
         <v>6.0880728219400003E-5</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>185</v>
       </c>
@@ -44659,7 +44683,7 @@
         <v>8.8891045800999993E-6</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>186</v>
       </c>
@@ -44688,7 +44712,7 @@
         <v>2.0888238347620001E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>187</v>
       </c>
@@ -44717,7 +44741,7 @@
         <v>1.40734505285E-5</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>188</v>
       </c>
@@ -44746,7 +44770,7 @@
         <v>1.6648527517800001E-5</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>189</v>
       </c>
@@ -44775,7 +44799,7 @@
         <v>1.4360956765999999E-6</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>190</v>
       </c>
@@ -44804,7 +44828,7 @@
         <v>1.00448859399E-5</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>191</v>
       </c>
@@ -44833,7 +44857,7 @@
         <v>2.2203561427699998E-5</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>192</v>
       </c>
@@ -44862,7 +44886,7 @@
         <v>8.2791663336E-6</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>193</v>
       </c>
@@ -44891,7 +44915,7 @@
         <v>1.3265928781539999E-4</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>194</v>
       </c>
@@ -44920,7 +44944,7 @@
         <v>3.2326199904204338E-7</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>195</v>
       </c>
@@ -44949,7 +44973,7 @@
         <v>2.3216292882E-6</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>196</v>
       </c>
@@ -44978,7 +45002,7 @@
         <v>4.9365299077627003E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>197</v>
       </c>
@@ -45007,7 +45031,7 @@
         <v>3.5890884484006298E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>198</v>
       </c>
@@ -45036,7 +45060,7 @@
         <v>1.8826032033999999E-6</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>199</v>
       </c>
@@ -45065,7 +45089,7 @@
         <v>2.3589258675739999E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>200</v>
       </c>
@@ -45094,7 +45118,7 @@
         <v>3.0565550126E-6</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>201</v>
       </c>
@@ -45123,7 +45147,7 @@
         <v>8.507636728808445E-7</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>202</v>
       </c>
@@ -45152,7 +45176,7 @@
         <v>1.65496730179E-5</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>203</v>
       </c>
@@ -45181,7 +45205,7 @@
         <v>8.250224522212006E-7</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>204</v>
       </c>
@@ -45210,7 +45234,7 @@
         <v>1.7592734279742279E-7</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>205</v>
       </c>
@@ -45239,7 +45263,7 @@
         <v>2.3458807581999999E-6</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>206</v>
       </c>
@@ -45268,7 +45292,7 @@
         <v>1.5589751980432001E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>207</v>
       </c>
@@ -45297,7 +45321,7 @@
         <v>5.9381230943516397E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>208</v>
       </c>
@@ -45326,7 +45350,7 @@
         <v>1.04904986566E-5</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>209</v>
       </c>
@@ -45355,7 +45379,7 @@
         <v>6.2363745111900003E-4</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>210</v>
       </c>
@@ -45384,7 +45408,7 @@
         <v>6.4225345772209999E-4</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -45413,7 +45437,7 @@
         <v>7.5567099213000003E-6</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>212</v>
       </c>
@@ -45442,7 +45466,7 @@
         <v>2.2140581069999999E-6</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>213</v>
       </c>
@@ -45471,7 +45495,7 @@
         <v>5.8829158679699997E-5</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>214</v>
       </c>
@@ -45500,7 +45524,7 @@
         <v>2.6703155867299998E-5</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>215</v>
       </c>
@@ -45529,7 +45553,7 @@
         <v>1.405525403554E-4</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>216</v>
       </c>
@@ -45558,7 +45582,7 @@
         <v>4.7820909698299999E-5</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>217</v>
       </c>
@@ -45587,7 +45611,7 @@
         <v>1.05267462082E-5</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>218</v>
       </c>
@@ -45616,7 +45640,7 @@
         <v>2.4389818822506001E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>219</v>
       </c>
@@ -45645,7 +45669,7 @@
         <v>9.3360149457000003E-6</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>220</v>
       </c>
@@ -45674,7 +45698,7 @@
         <v>8.5849119346854998E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>221</v>
       </c>
@@ -45703,7 +45727,7 @@
         <v>1.8702241116E-6</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>222</v>
       </c>
@@ -45732,7 +45756,7 @@
         <v>2.4183626863067001E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>223</v>
       </c>
@@ -45761,7 +45785,7 @@
         <v>2.5824055259000001E-6</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>224</v>
       </c>
@@ -45790,7 +45814,7 @@
         <v>1.4999422072000001E-6</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>225</v>
       </c>
@@ -45819,7 +45843,7 @@
         <v>2.4703213181599998E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>226</v>
       </c>
@@ -45848,7 +45872,7 @@
         <v>5.2433205947000001E-6</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>227</v>
       </c>
@@ -45877,7 +45901,7 @@
         <v>3.9553545210399999E-5</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>228</v>
       </c>
@@ -45906,7 +45930,7 @@
         <v>3.1351268846600003E-5</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>229</v>
       </c>
@@ -45935,7 +45959,7 @@
         <v>4.03412155571E-5</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>230</v>
       </c>
@@ -45964,7 +45988,7 @@
         <v>1.4863795644488101E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>231</v>
       </c>
@@ -45993,7 +46017,7 @@
         <v>8.7273375644999999E-6</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>232</v>
       </c>
@@ -46022,7 +46046,7 @@
         <v>5.6718217504399997E-5</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>233</v>
       </c>
@@ -46051,7 +46075,7 @@
         <v>1.5731774583000001E-5</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>234</v>
       </c>
@@ -46080,7 +46104,7 @@
         <v>4.7093444749999996E-6</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>235</v>
       </c>
@@ -46109,7 +46133,7 @@
         <v>2.048087028747382E-7</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>236</v>
       </c>
@@ -46138,7 +46162,7 @@
         <v>1.1322930067000001E-6</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>237</v>
       </c>
@@ -46167,7 +46191,7 @@
         <v>7.5034669750660005E-4</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>238</v>
       </c>
@@ -46196,7 +46220,7 @@
         <v>2.0627848502E-6</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>239</v>
       </c>
@@ -46225,7 +46249,7 @@
         <v>1.103195867653E-4</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>240</v>
       </c>
@@ -46254,7 +46278,7 @@
         <v>2.7809880393029658E-7</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>241</v>
       </c>
@@ -46283,7 +46307,7 @@
         <v>1.3033055892000001E-6</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>242</v>
       </c>
@@ -46312,7 +46336,7 @@
         <v>9.8660044440600008E-4</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>243</v>
       </c>
@@ -46341,7 +46365,7 @@
         <v>1.7242596961399999E-5</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>244</v>
       </c>
@@ -46370,7 +46394,7 @@
         <v>8.082669316667106E-7</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>245</v>
       </c>
@@ -46399,7 +46423,7 @@
         <v>6.0215455491499999E-5</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>246</v>
       </c>
@@ -46428,7 +46452,7 @@
         <v>3.4952813370599999E-5</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>247</v>
       </c>
@@ -46457,7 +46481,7 @@
         <v>1.72007446201695E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>248</v>
       </c>
@@ -46486,7 +46510,7 @@
         <v>6.1925404388199997E-5</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>249</v>
       </c>
@@ -46515,7 +46539,7 @@
         <v>1.3449783960923999E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>250</v>
       </c>
@@ -46544,7 +46568,7 @@
         <v>5.4708412427867091E-7</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>251</v>
       </c>
@@ -46573,7 +46597,7 @@
         <v>1.8817420404999999E-6</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>252</v>
       </c>
@@ -46602,7 +46626,7 @@
         <v>1.5186817044777199E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>253</v>
       </c>
@@ -46631,7 +46655,7 @@
         <v>4.4284513116499998E-5</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>254</v>
       </c>
@@ -46660,7 +46684,7 @@
         <v>8.3904857904999992E-6</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>255</v>
       </c>
@@ -46689,7 +46713,7 @@
         <v>4.3505193552999998E-4</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>256</v>
       </c>
@@ -46718,7 +46742,7 @@
         <v>2.0514073200100001E-5</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>257</v>
       </c>
@@ -46747,7 +46771,7 @@
         <v>8.1213665606129999E-4</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>258</v>
       </c>
@@ -46776,7 +46800,7 @@
         <v>2.4382467276800002E-5</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>259</v>
       </c>
@@ -46805,7 +46829,7 @@
         <v>5.5743281997399998E-5</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>260</v>
       </c>
@@ -46834,7 +46858,7 @@
         <v>9.6244649545999997E-6</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>261</v>
       </c>
@@ -46863,7 +46887,7 @@
         <v>2.8928572441927508E-7</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>262</v>
       </c>
@@ -46892,7 +46916,7 @@
         <v>1.5790566498999999E-5</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>263</v>
       </c>
@@ -46921,7 +46945,7 @@
         <v>6.5684433693000002E-6</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>264</v>
       </c>
@@ -46950,7 +46974,7 @@
         <v>3.41889398032E-4</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>265</v>
       </c>
@@ -46979,7 +47003,7 @@
         <v>1.3697357301489999E-4</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>266</v>
       </c>
@@ -47008,7 +47032,7 @@
         <v>1.829492369514E-4</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>267</v>
       </c>
@@ -47037,7 +47061,7 @@
         <v>5.6643829928610997E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>268</v>
       </c>
@@ -47066,7 +47090,7 @@
         <v>2.374391041214232E-7</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>269</v>
       </c>
@@ -47095,7 +47119,7 @@
         <v>6.3921485332999999E-5</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>270</v>
       </c>
@@ -47124,7 +47148,7 @@
         <v>5.0307093173959996E-4</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>271</v>
       </c>
@@ -47153,7 +47177,7 @@
         <v>8.8393295333000001E-6</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>272</v>
       </c>
@@ -47182,7 +47206,7 @@
         <v>7.2652617847999997E-6</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>273</v>
       </c>
@@ -47211,7 +47235,7 @@
         <v>7.8116293398999993E-6</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>274</v>
       </c>
@@ -47240,7 +47264,7 @@
         <v>1.15345880028E-5</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>275</v>
       </c>
@@ -47269,7 +47293,7 @@
         <v>6.8407105685060004E-4</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>276</v>
       </c>
@@ -47298,7 +47322,7 @@
         <v>6.5040616600399998E-5</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>277</v>
       </c>
@@ -47327,7 +47351,7 @@
         <v>5.6783657946E-6</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>278</v>
       </c>
@@ -47356,7 +47380,7 @@
         <v>2.6417169444920601E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>279</v>
       </c>
@@ -47385,7 +47409,7 @@
         <v>3.2600642991999998E-6</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>280</v>
       </c>
@@ -47414,7 +47438,7 @@
         <v>2.2338015736141969E-7</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>281</v>
       </c>
@@ -47443,7 +47467,7 @@
         <v>1.19762785107E-5</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>282</v>
       </c>
@@ -47472,7 +47496,7 @@
         <v>2.257795741906E-4</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>283</v>
       </c>
@@ -47501,7 +47525,7 @@
         <v>3.2512180687000001E-6</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>285</v>
       </c>
@@ -47530,7 +47554,7 @@
         <v>9.0340570040499998E-5</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>286</v>
       </c>
@@ -47559,7 +47583,7 @@
         <v>1.18362687981085E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>287</v>
       </c>
@@ -47588,7 +47612,7 @@
         <v>4.9482163544593472E-7</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>288</v>
       </c>
@@ -47617,7 +47641,7 @@
         <v>4.6025447404999998E-6</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>289</v>
       </c>
@@ -47646,7 +47670,7 @@
         <v>4.4176483636000001E-6</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>290</v>
       </c>
@@ -47675,7 +47699,7 @@
         <v>3.2761039445896661E-7</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>291</v>
       </c>
@@ -47704,7 +47728,7 @@
         <v>3.6066305629689998E-4</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>292</v>
       </c>
@@ -47733,7 +47757,7 @@
         <v>1.6057409145000001E-6</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>293</v>
       </c>
@@ -47762,7 +47786,7 @@
         <v>2.7227682133537001E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>294</v>
       </c>
@@ -47791,7 +47815,7 @@
         <v>1.5280390253999999E-6</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>295</v>
       </c>
@@ -47820,7 +47844,7 @@
         <v>2.1916754921E-6</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>296</v>
       </c>
@@ -47849,7 +47873,7 @@
         <v>2.5246335567999999E-6</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>297</v>
       </c>
@@ -47878,7 +47902,7 @@
         <v>2.5654368162179999E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>298</v>
       </c>
@@ -47907,7 +47931,7 @@
         <v>6.806046347426685E-7</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>299</v>
       </c>
@@ -47936,7 +47960,7 @@
         <v>7.9396591863700001E-5</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>300</v>
       </c>
@@ -47965,7 +47989,7 @@
         <v>2.9888640879509E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>301</v>
       </c>
@@ -47994,7 +48018,7 @@
         <v>1.4677556293E-6</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>302</v>
       </c>
@@ -48023,7 +48047,7 @@
         <v>2.3397381616227401E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>303</v>
       </c>
@@ -48052,7 +48076,7 @@
         <v>2.2461430790200001E-5</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>304</v>
       </c>
@@ -48081,7 +48105,7 @@
         <v>1.6021928566999999E-6</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>305</v>
       </c>
@@ -48110,7 +48134,7 @@
         <v>1.26448821994E-5</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>306</v>
       </c>
@@ -48139,7 +48163,7 @@
         <v>3.3156247919100003E-5</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>307</v>
       </c>
@@ -48168,7 +48192,7 @@
         <v>1.9107343623000001E-6</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>308</v>
       </c>
@@ -48197,7 +48221,7 @@
         <v>4.3110482535579997E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>309</v>
       </c>
@@ -48226,7 +48250,7 @@
         <v>0.12579306150037531</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>310</v>
       </c>
@@ -48255,7 +48279,7 @@
         <v>8.5889530163500005E-5</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>311</v>
       </c>
@@ -48284,7 +48308,7 @@
         <v>1.2565169940560001E-4</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>312</v>
       </c>
@@ -48313,7 +48337,7 @@
         <v>2.0597656779610001E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>313</v>
       </c>
@@ -48342,7 +48366,7 @@
         <v>1.5483931660000001E-6</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>314</v>
       </c>
@@ -48371,7 +48395,7 @@
         <v>1.119445936577E-4</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>315</v>
       </c>
@@ -48400,7 +48424,7 @@
         <v>1.7635689416000001E-6</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>316</v>
       </c>
@@ -48429,7 +48453,7 @@
         <v>1.3513930156179E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>317</v>
       </c>
@@ -48458,7 +48482,7 @@
         <v>1.63002942782E-5</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>318</v>
       </c>
@@ -48487,7 +48511,7 @@
         <v>1.7800309526679999E-4</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>319</v>
       </c>
@@ -48516,7 +48540,7 @@
         <v>6.8454204790999999E-6</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>320</v>
       </c>
@@ -48545,7 +48569,7 @@
         <v>4.5769018001054369E-7</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>321</v>
       </c>
@@ -48574,7 +48598,7 @@
         <v>6.8495709247500005E-5</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>322</v>
       </c>
@@ -48603,7 +48627,7 @@
         <v>1.1396976063000001E-6</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>323</v>
       </c>
@@ -48632,7 +48656,7 @@
         <v>1.246547701943E-4</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>324</v>
       </c>
@@ -48661,7 +48685,7 @@
         <v>1.6473741989530001E-4</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>325</v>
       </c>
@@ -48690,7 +48714,7 @@
         <v>1.21647807816E-5</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>326</v>
       </c>
@@ -48719,7 +48743,7 @@
         <v>9.4677588181114951E-7</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>327</v>
       </c>
@@ -48748,7 +48772,7 @@
         <v>2.4961667900999998E-6</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>328</v>
       </c>
@@ -48777,7 +48801,7 @@
         <v>2.2506289885E-6</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>329</v>
       </c>
@@ -48806,7 +48830,7 @@
         <v>6.6222829182999998E-6</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>330</v>
       </c>
@@ -48835,7 +48859,7 @@
         <v>9.5669514124999997E-6</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>331</v>
       </c>
@@ -48864,7 +48888,7 @@
         <v>2.344699603405E-3</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>332</v>
       </c>
@@ -48893,7 +48917,7 @@
         <v>8.2468929987205955E-7</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>333</v>
       </c>
@@ -48922,7 +48946,7 @@
         <v>9.5086595371600001E-4</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>334</v>
       </c>
@@ -48951,7 +48975,7 @@
         <v>7.7980600412949999E-4</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>335</v>
       </c>
@@ -48980,7 +49004,7 @@
         <v>2.3227687355056969E-7</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>336</v>
       </c>
@@ -49009,7 +49033,7 @@
         <v>7.0244932258000003E-6</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>337</v>
       </c>
@@ -49038,7 +49062,7 @@
         <v>3.0772451336399999E-5</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>338</v>
       </c>
@@ -49067,7 +49091,7 @@
         <v>3.0966860046680001E-4</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>339</v>
       </c>
@@ -49096,7 +49120,7 @@
         <v>1.20011602306E-5</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>340</v>
       </c>
@@ -49125,7 +49149,7 @@
         <v>7.2075242644300001E-4</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>341</v>
       </c>
@@ -49154,7 +49178,7 @@
         <v>1.3712990907999999E-6</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>342</v>
       </c>
@@ -49183,7 +49207,7 @@
         <v>1.6840831499499999E-5</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>343</v>
       </c>
@@ -49212,7 +49236,7 @@
         <v>1.4776888998619001E-3</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>344</v>
       </c>
@@ -49241,7 +49265,7 @@
         <v>2.0753903521000001E-6</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>345</v>
       </c>
@@ -49270,7 +49294,7 @@
         <v>7.7723435229079355E-7</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>346</v>
       </c>
@@ -49299,7 +49323,7 @@
         <v>1.02782803795E-5</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>347</v>
       </c>
@@ -49328,7 +49352,7 @@
         <v>4.4405316077999998E-6</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>348</v>
       </c>
@@ -49357,7 +49381,7 @@
         <v>2.3588278993200001E-5</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>349</v>
       </c>
@@ -49386,7 +49410,7 @@
         <v>5.0405564046079995E-4</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>350</v>
       </c>
@@ -49415,7 +49439,7 @@
         <v>3.0350680780949E-3</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>351</v>
       </c>
@@ -49444,7 +49468,7 @@
         <v>3.2124188857520002E-4</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>353</v>
       </c>
@@ -49473,7 +49497,7 @@
         <v>5.1499196972999998E-6</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>354</v>
       </c>
@@ -49502,7 +49526,7 @@
         <v>1.6231825558999999E-6</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>355</v>
       </c>
@@ -49531,7 +49555,7 @@
         <v>1.3621519947000001E-6</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>356</v>
       </c>
@@ -49560,7 +49584,7 @@
         <v>0.1138079659826854</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>357</v>
       </c>
@@ -49589,7 +49613,7 @@
         <v>1.6130063836E-6</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>358</v>
       </c>
@@ -49618,7 +49642,7 @@
         <v>1.7766600859999999E-6</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>359</v>
       </c>
@@ -49647,7 +49671,7 @@
         <v>1.08579758946E-5</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>360</v>
       </c>
@@ -49676,7 +49700,7 @@
         <v>3.5234432432700002E-5</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>361</v>
       </c>
@@ -49705,7 +49729,7 @@
         <v>2.9008090905620001E-4</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>362</v>
       </c>
@@ -49734,7 +49758,7 @@
         <v>7.608457219567589E-7</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>363</v>
       </c>
@@ -49763,7 +49787,7 @@
         <v>1.3592559361E-6</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>364</v>
       </c>
@@ -49792,7 +49816,7 @@
         <v>1.302439849E-6</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>365</v>
       </c>
@@ -49821,7 +49845,7 @@
         <v>5.7123272163629383E-7</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>366</v>
       </c>
@@ -49850,7 +49874,7 @@
         <v>2.9077729576999999E-6</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>367</v>
       </c>
@@ -49879,7 +49903,7 @@
         <v>2.8854348962E-6</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>368</v>
       </c>
@@ -49908,7 +49932,7 @@
         <v>2.7361318588100001E-5</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>369</v>
       </c>
@@ -49937,7 +49961,7 @@
         <v>3.4259916388417819E-7</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>370</v>
       </c>
@@ -49966,7 +49990,7 @@
         <v>8.9136044664402697E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>371</v>
       </c>
@@ -49995,7 +50019,7 @@
         <v>8.3854508881999999E-6</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>372</v>
       </c>
@@ -50024,7 +50048,7 @@
         <v>9.2462765660539996E-4</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>373</v>
       </c>
@@ -50053,7 +50077,7 @@
         <v>6.1208794004347038E-7</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>374</v>
       </c>
@@ -50082,7 +50106,7 @@
         <v>2.0424233640071999E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>375</v>
       </c>
@@ -50111,7 +50135,7 @@
         <v>4.9481171740383561E-7</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>376</v>
       </c>
@@ -50140,7 +50164,7 @@
         <v>1.4068903839040001E-4</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>377</v>
       </c>
@@ -50169,7 +50193,7 @@
         <v>4.1480113194453001E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>378</v>
       </c>
@@ -50198,7 +50222,7 @@
         <v>4.8442126307800002E-5</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>379</v>
       </c>
@@ -50227,7 +50251,7 @@
         <v>2.90728304144E-5</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>380</v>
       </c>
@@ -50256,7 +50280,7 @@
         <v>7.2761077717399997E-5</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>381</v>
       </c>
@@ -50285,7 +50309,7 @@
         <v>8.3046126520999997E-6</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>382</v>
       </c>
@@ -50314,7 +50338,7 @@
         <v>1.07005403487E-5</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>383</v>
       </c>
@@ -50343,7 +50367,7 @@
         <v>4.4210646656E-6</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>384</v>
       </c>
@@ -50372,7 +50396,7 @@
         <v>1.9497190466470001E-4</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>385</v>
       </c>
@@ -50401,7 +50425,7 @@
         <v>6.4225924461619997E-4</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>386</v>
       </c>
@@ -50430,7 +50454,7 @@
         <v>1.9022944123999999E-6</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>387</v>
       </c>
@@ -50459,7 +50483,7 @@
         <v>3.3644875413000002E-6</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>388</v>
       </c>
@@ -50488,7 +50512,7 @@
         <v>3.1756513955267997E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>389</v>
       </c>
@@ -50517,7 +50541,7 @@
         <v>5.3125993507716497E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>390</v>
       </c>
@@ -50546,7 +50570,7 @@
         <v>4.9330833817999998E-6</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>391</v>
       </c>
@@ -50575,7 +50599,7 @@
         <v>1.1901956229000001E-6</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>392</v>
       </c>
@@ -50604,7 +50628,7 @@
         <v>7.5439434273899997E-5</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>393</v>
       </c>
@@ -50633,7 +50657,7 @@
         <v>1.33567985375E-5</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>394</v>
       </c>
@@ -50662,7 +50686,7 @@
         <v>1.693715898188167E-7</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>395</v>
       </c>
@@ -50691,7 +50715,7 @@
         <v>1.0490808317800001E-5</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>396</v>
       </c>
@@ -50720,7 +50744,7 @@
         <v>1.018579734075E-4</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>397</v>
       </c>
@@ -50749,7 +50773,7 @@
         <v>3.4238722209700003E-5</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>398</v>
       </c>
@@ -50778,7 +50802,7 @@
         <v>3.8507297722E-6</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>399</v>
       </c>
@@ -50807,7 +50831,7 @@
         <v>3.3803174639E-6</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>400</v>
       </c>
@@ -50836,7 +50860,7 @@
         <v>8.3380467093537749E-7</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>401</v>
       </c>
@@ -50865,7 +50889,7 @@
         <v>5.7936537746000004E-6</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>402</v>
       </c>
@@ -50894,7 +50918,7 @@
         <v>1.7712221780529999E-4</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>403</v>
       </c>
@@ -50923,7 +50947,7 @@
         <v>9.0997018358961006E-3</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>404</v>
       </c>
@@ -50952,7 +50976,7 @@
         <v>3.6385061591100003E-5</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>405</v>
       </c>
@@ -50981,7 +51005,7 @@
         <v>1.75426690694E-5</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>406</v>
       </c>
@@ -51010,7 +51034,7 @@
         <v>9.1592588519802971E-7</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>407</v>
       </c>
@@ -51039,7 +51063,7 @@
         <v>2.6550809824459998E-4</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>408</v>
       </c>
@@ -51068,7 +51092,7 @@
         <v>7.8689175748000003E-6</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>409</v>
       </c>
@@ -51097,7 +51121,7 @@
         <v>4.6235431443200001E-5</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>410</v>
       </c>
@@ -51126,7 +51150,7 @@
         <v>3.0267579170000001E-6</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>411</v>
       </c>
@@ -51155,7 +51179,7 @@
         <v>2.1406403039000001E-6</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>412</v>
       </c>
@@ -51184,7 +51208,7 @@
         <v>1.37548571275E-5</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>413</v>
       </c>
@@ -51213,7 +51237,7 @@
         <v>9.6552218749800005E-5</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>414</v>
       </c>
@@ -51242,7 +51266,7 @@
         <v>1.6140418359900001E-5</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>415</v>
       </c>
@@ -51271,7 +51295,7 @@
         <v>3.8790667471330002E-4</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>416</v>
       </c>
@@ -51300,7 +51324,7 @@
         <v>5.4362971624999998E-6</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>417</v>
       </c>
@@ -51329,7 +51353,7 @@
         <v>1.9846020656354881E-7</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>418</v>
       </c>
@@ -51358,7 +51382,7 @@
         <v>5.0683103233000001E-6</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>419</v>
       </c>
@@ -51387,7 +51411,7 @@
         <v>7.7690636905000002E-6</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>420</v>
       </c>
@@ -51416,7 +51440,7 @@
         <v>6.6808519369199995E-4</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>421</v>
       </c>
@@ -51445,7 +51469,7 @@
         <v>7.7605651358778E-3</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>422</v>
       </c>
@@ -51474,7 +51498,7 @@
         <v>3.8245424845300003E-5</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>423</v>
       </c>
@@ -51503,7 +51527,7 @@
         <v>7.4532476949288801E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>424</v>
       </c>
@@ -51532,7 +51556,7 @@
         <v>1.2091345827065999E-3</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>425</v>
       </c>
@@ -51561,7 +51585,7 @@
         <v>2.1311451922859E-3</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>426</v>
       </c>
@@ -51590,7 +51614,7 @@
         <v>3.1056948761000001E-6</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>427</v>
       </c>
@@ -51619,7 +51643,7 @@
         <v>8.8432444043299997E-5</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>428</v>
       </c>
@@ -51648,7 +51672,7 @@
         <v>4.0909393625600001E-5</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>429</v>
       </c>
@@ -51677,7 +51701,7 @@
         <v>1.7291648373574559E-7</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>430</v>
       </c>
@@ -51706,7 +51730,7 @@
         <v>1.7769146452099998E-5</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>431</v>
       </c>
@@ -51735,7 +51759,7 @@
         <v>3.6775629008860001E-4</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>432</v>
       </c>
@@ -51764,7 +51788,7 @@
         <v>3.0011969808500001E-5</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>433</v>
       </c>
@@ -51793,7 +51817,7 @@
         <v>1.1191312205349999E-4</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>434</v>
       </c>
@@ -51822,7 +51846,7 @@
         <v>8.4890094939239996E-4</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>435</v>
       </c>
@@ -51851,7 +51875,7 @@
         <v>8.3148111689002707E-7</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>436</v>
       </c>
@@ -51880,7 +51904,7 @@
         <v>2.0307413538240001E-4</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>437</v>
       </c>
@@ -51909,7 +51933,7 @@
         <v>2.0827011853999998E-6</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>438</v>
       </c>
@@ -51938,7 +51962,7 @@
         <v>3.707340987313E-3</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>439</v>
       </c>
@@ -51967,7 +51991,7 @@
         <v>7.6265073578999997E-6</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>440</v>
       </c>
@@ -51996,7 +52020,7 @@
         <v>2.1202761549549999E-4</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>441</v>
       </c>
@@ -52025,7 +52049,7 @@
         <v>7.543658043227101E-7</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>442</v>
       </c>
@@ -52054,7 +52078,7 @@
         <v>1.6713327932E-6</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>443</v>
       </c>
@@ -52083,7 +52107,7 @@
         <v>7.7689334197410004E-4</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>444</v>
       </c>
@@ -52112,7 +52136,7 @@
         <v>6.2364299048999998E-6</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>445</v>
       </c>
@@ -52141,7 +52165,7 @@
         <v>3.030500283138E-4</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>446</v>
       </c>
@@ -52170,7 +52194,7 @@
         <v>1.2408778990503999E-3</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>447</v>
       </c>
@@ -52199,7 +52223,7 @@
         <v>2.4610355380000002E-6</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>448</v>
       </c>
@@ -52228,7 +52252,7 @@
         <v>4.7019224780000003E-6</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>449</v>
       </c>
@@ -52257,7 +52281,7 @@
         <v>1.4218358971400001E-5</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>450</v>
       </c>
@@ -52286,7 +52310,7 @@
         <v>7.3735289534000004E-5</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>451</v>
       </c>
@@ -52315,7 +52339,7 @@
         <v>1.2151010376694E-3</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>452</v>
       </c>
@@ -52344,7 +52368,7 @@
         <v>2.7778217336799999E-5</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>453</v>
       </c>
@@ -52373,7 +52397,7 @@
         <v>6.0759355000000002E-6</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>454</v>
       </c>
@@ -52402,7 +52426,7 @@
         <v>1.539577988137E-4</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>455</v>
       </c>
@@ -52431,7 +52455,7 @@
         <v>1.9175819420479999E-4</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>456</v>
       </c>
@@ -52460,7 +52484,7 @@
         <v>2.3429407593810001E-4</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>457</v>
       </c>
@@ -52489,7 +52513,7 @@
         <v>1.2854283472499999E-5</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>458</v>
       </c>
@@ -52518,7 +52542,7 @@
         <v>6.4985321522999999E-6</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>459</v>
       </c>
@@ -52547,7 +52571,7 @@
         <v>1.446352366385E-4</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>460</v>
       </c>
@@ -52576,7 +52600,7 @@
         <v>4.7441250512000001E-6</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>461</v>
       </c>
@@ -52605,7 +52629,7 @@
         <v>2.5489569242529998E-4</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>462</v>
       </c>
@@ -52634,7 +52658,7 @@
         <v>0.25726134614487089</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>463</v>
       </c>
@@ -52663,7 +52687,7 @@
         <v>4.8458792780899999E-5</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>464</v>
       </c>
@@ -52692,7 +52716,7 @@
         <v>2.5678697343000001E-6</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>465</v>
       </c>
@@ -52721,7 +52745,7 @@
         <v>3.3439530871014618E-7</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>466</v>
       </c>
@@ -52750,7 +52774,7 @@
         <v>2.7243972312000001E-6</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>467</v>
       </c>
@@ -52779,7 +52803,7 @@
         <v>2.1857719477991599E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>468</v>
       </c>
@@ -52808,7 +52832,7 @@
         <v>1.6701742827000001E-6</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>469</v>
       </c>
@@ -52837,7 +52861,7 @@
         <v>1.4295831784000001E-6</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>470</v>
       </c>
@@ -52866,7 +52890,7 @@
         <v>3.1982006915999998E-6</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>471</v>
       </c>
@@ -52895,7 +52919,7 @@
         <v>2.1527831231560001E-4</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>472</v>
       </c>
@@ -52924,7 +52948,7 @@
         <v>6.7494672293100003E-5</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>473</v>
       </c>
@@ -52953,7 +52977,7 @@
         <v>7.2266220413999997E-6</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>474</v>
       </c>
@@ -52982,7 +53006,7 @@
         <v>1.5807299823599998E-5</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>475</v>
       </c>
@@ -53011,7 +53035,7 @@
         <v>1.4671442005679999E-4</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>476</v>
       </c>
@@ -53040,7 +53064,7 @@
         <v>5.5079661820999998E-6</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>477</v>
       </c>
@@ -53069,7 +53093,7 @@
         <v>1.81531586383E-5</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>478</v>
       </c>
@@ -53098,7 +53122,7 @@
         <v>2.0971722825000002E-6</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>479</v>
       </c>
@@ -53127,7 +53151,7 @@
         <v>2.6150781479799999E-5</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>480</v>
       </c>
@@ -53156,7 +53180,7 @@
         <v>1.4480213946999999E-6</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>481</v>
       </c>
@@ -53185,7 +53209,7 @@
         <v>2.0260772036E-6</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>482</v>
       </c>
@@ -53214,7 +53238,7 @@
         <v>1.6527351124999999E-6</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>483</v>
       </c>
@@ -53243,7 +53267,7 @@
         <v>1.4496804741999999E-6</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>484</v>
       </c>
@@ -53272,7 +53296,7 @@
         <v>2.6124383570199998E-5</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>485</v>
       </c>
@@ -53301,7 +53325,7 @@
         <v>4.1116502493989998E-4</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>486</v>
       </c>
@@ -53330,7 +53354,7 @@
         <v>3.7826846022000002E-6</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>487</v>
       </c>
@@ -53359,7 +53383,7 @@
         <v>1.503938736844E-4</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>488</v>
       </c>
@@ -53388,7 +53412,7 @@
         <v>6.5734205343000002E-6</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>489</v>
       </c>
@@ -53417,7 +53441,7 @@
         <v>6.5096158134200004E-5</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>490</v>
       </c>
@@ -53446,7 +53470,7 @@
         <v>2.3393743458000002E-6</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>491</v>
       </c>
@@ -53475,7 +53499,7 @@
         <v>5.0661628625612407E-7</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>492</v>
       </c>
@@ -53504,7 +53528,7 @@
         <v>1.6721707657600001E-5</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>493</v>
       </c>
@@ -53533,7 +53557,7 @@
         <v>1.751907269831E-4</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>494</v>
       </c>
@@ -53562,7 +53586,7 @@
         <v>1.4008129698490001E-4</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>495</v>
       </c>
@@ -53591,7 +53615,7 @@
         <v>1.187252378735E-4</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>496</v>
       </c>
@@ -53620,7 +53644,7 @@
         <v>1.096530052853E-4</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>497</v>
       </c>
@@ -53649,7 +53673,7 @@
         <v>7.3836377200702897E-7</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>498</v>
       </c>
@@ -53678,7 +53702,7 @@
         <v>4.13415177728E-5</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>499</v>
       </c>
@@ -53707,7 +53731,7 @@
         <v>1.33298449715E-5</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>500</v>
       </c>
@@ -53736,7 +53760,7 @@
         <v>3.4243386938607051E-7</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>501</v>
       </c>
@@ -53765,7 +53789,7 @@
         <v>2.7164709042992001E-3</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>502</v>
       </c>
@@ -53794,7 +53818,7 @@
         <v>2.5134517656169998E-4</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>503</v>
       </c>
@@ -53823,7 +53847,7 @@
         <v>1.9943820710167002E-3</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>504</v>
       </c>
@@ -53852,7 +53876,7 @@
         <v>1.4972705307E-6</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>505</v>
       </c>
@@ -53881,7 +53905,7 @@
         <v>3.1826870590000002E-6</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>506</v>
       </c>
@@ -53910,7 +53934,7 @@
         <v>1.7784310453000001E-6</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>507</v>
       </c>
@@ -53939,7 +53963,7 @@
         <v>1.48688579982E-5</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>508</v>
       </c>
@@ -53968,7 +53992,7 @@
         <v>1.5464360859800002E-5</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>509</v>
       </c>
@@ -53997,7 +54021,7 @@
         <v>1.5749091121999999E-4</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>510</v>
       </c>
@@ -54026,7 +54050,7 @@
         <v>3.9589481840024598E-7</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>511</v>
       </c>
@@ -54055,7 +54079,7 @@
         <v>1.9041455346200002E-5</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>512</v>
       </c>
@@ -54084,7 +54108,7 @@
         <v>3.04313468439E-5</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>513</v>
       </c>
@@ -54113,7 +54137,7 @@
         <v>1.021652019293206E-7</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>514</v>
       </c>
@@ -54142,7 +54166,7 @@
         <v>5.5183304369609996E-4</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>515</v>
       </c>
@@ -54171,7 +54195,7 @@
         <v>4.6568065022999997E-6</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>516</v>
       </c>
@@ -54200,7 +54224,7 @@
         <v>1.2738467388999999E-6</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>517</v>
       </c>
@@ -54229,7 +54253,7 @@
         <v>6.0487809977999997E-6</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>518</v>
       </c>
@@ -54258,7 +54282,7 @@
         <v>7.3431101522199998E-5</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>519</v>
       </c>
@@ -54287,7 +54311,7 @@
         <v>4.7891459602999999E-6</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>520</v>
       </c>
@@ -54316,7 +54340,7 @@
         <v>0.55912587085339005</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>521</v>
       </c>
@@ -54345,7 +54369,7 @@
         <v>1.8051915457099999E-5</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>522</v>
       </c>
@@ -54374,7 +54398,7 @@
         <v>3.4769766494063999E-3</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>523</v>
       </c>
@@ -54403,7 +54427,7 @@
         <v>4.4359289837099999E-5</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>524</v>
       </c>
@@ -54432,7 +54456,7 @@
         <v>7.2291611117800004E-5</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>525</v>
       </c>
@@ -54461,7 +54485,7 @@
         <v>3.3373870248279999E-4</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>526</v>
       </c>
@@ -54490,7 +54514,7 @@
         <v>1.1065044633854001E-3</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>527</v>
       </c>
@@ -54519,7 +54543,7 @@
         <v>2.9215954274E-6</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>528</v>
       </c>
@@ -54548,7 +54572,7 @@
         <v>7.7025854297999999E-6</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>529</v>
       </c>
@@ -54577,7 +54601,7 @@
         <v>2.3523388261726002E-3</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>530</v>
       </c>
@@ -54606,7 +54630,7 @@
         <v>1.5345160727E-6</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>531</v>
       </c>
@@ -54635,7 +54659,7 @@
         <v>2.3587236309979999E-4</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>532</v>
       </c>
@@ -54664,7 +54688,7 @@
         <v>1.103171837681E-4</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>533</v>
       </c>
@@ -54693,7 +54717,7 @@
         <v>6.4366008293749997E-4</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>534</v>
       </c>
@@ -54722,7 +54746,7 @@
         <v>1.4128966699919999E-4</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>535</v>
       </c>
@@ -54751,7 +54775,7 @@
         <v>1.94082900565E-4</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>536</v>
       </c>
@@ -54780,7 +54804,7 @@
         <v>1.096294115593E-4</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>537</v>
       </c>
@@ -54809,7 +54833,7 @@
         <v>2.302323578516714E-7</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>538</v>
       </c>
@@ -54838,7 +54862,7 @@
         <v>5.2538012473999998E-6</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>539</v>
       </c>
@@ -54867,7 +54891,7 @@
         <v>3.3958606352000001E-6</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>540</v>
       </c>
@@ -54896,7 +54920,7 @@
         <v>1.132722977104E-4</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>541</v>
       </c>
@@ -54925,7 +54949,7 @@
         <v>2.0580457992999998E-6</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>542</v>
       </c>
@@ -54954,7 +54978,7 @@
         <v>1.877776096486E-4</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>543</v>
       </c>
@@ -54983,7 +55007,7 @@
         <v>1.7116761112699999E-5</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>544</v>
       </c>
@@ -55012,7 +55036,7 @@
         <v>3.8013629266000001E-6</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>545</v>
       </c>
@@ -55041,7 +55065,7 @@
         <v>1.2759184790050001E-4</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>546</v>
       </c>
@@ -55070,7 +55094,7 @@
         <v>4.998948248887303E-7</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>547</v>
       </c>
@@ -55099,7 +55123,7 @@
         <v>1.9227995891E-6</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>548</v>
       </c>
@@ -55128,7 +55152,7 @@
         <v>1.1911991727E-6</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>549</v>
       </c>
@@ -55157,7 +55181,7 @@
         <v>2.7501097551200001E-5</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>550</v>
       </c>
@@ -55186,7 +55210,7 @@
         <v>1.6359149774948999E-3</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>551</v>
       </c>
@@ -55215,7 +55239,7 @@
         <v>6.5576253044075999E-3</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>552</v>
       </c>
@@ -55244,7 +55268,7 @@
         <v>2.19256869141E-5</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>553</v>
       </c>
@@ -55273,7 +55297,7 @@
         <v>8.9857837576000002E-5</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>554</v>
       </c>
@@ -55302,7 +55326,7 @@
         <v>5.7677599536999998E-6</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>555</v>
       </c>
@@ -55331,7 +55355,7 @@
         <v>6.8023546774650002E-4</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>556</v>
       </c>
@@ -55360,7 +55384,7 @@
         <v>3.3174407097382001E-3</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>557</v>
       </c>
@@ -55389,7 +55413,7 @@
         <v>1.0249095351999999E-4</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>558</v>
       </c>
@@ -55418,7 +55442,7 @@
         <v>2.202144584802E-4</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>559</v>
       </c>
@@ -55447,7 +55471,7 @@
         <v>9.2265533137599997E-5</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>560</v>
       </c>
@@ -55476,7 +55500,7 @@
         <v>3.3173783468990001E-4</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>561</v>
       </c>
@@ -55505,7 +55529,7 @@
         <v>2.3400705243999999E-6</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>562</v>
       </c>
@@ -55534,7 +55558,7 @@
         <v>1.898655473140964E-7</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>563</v>
       </c>
@@ -55563,7 +55587,7 @@
         <v>1.6826576675799999E-4</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>564</v>
       </c>
@@ -55592,7 +55616,7 @@
         <v>2.7628198040747002E-3</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>565</v>
       </c>
@@ -55621,7 +55645,7 @@
         <v>1.2573890447621999E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>566</v>
       </c>
@@ -55650,7 +55674,7 @@
         <v>3.3597915323049999E-4</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>567</v>
       </c>
@@ -55679,7 +55703,7 @@
         <v>0.2756603210726471</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>568</v>
       </c>
@@ -55708,7 +55732,7 @@
         <v>3.5591306078869999E-4</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>569</v>
       </c>
@@ -55737,7 +55761,7 @@
         <v>0.18591500586361651</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>570</v>
       </c>
@@ -55766,7 +55790,7 @@
         <v>3.9963044487953004E-3</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>571</v>
       </c>
@@ -55795,7 +55819,7 @@
         <v>0.71354885247104805</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>572</v>
       </c>
@@ -55824,7 +55848,7 @@
         <v>0.1633943036890072</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>573</v>
       </c>
@@ -55853,7 +55877,7 @@
         <v>0.84712186721451288</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>574</v>
       </c>
@@ -55882,7 +55906,7 @@
         <v>0.54952795150162426</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>575</v>
       </c>
@@ -55911,7 +55935,7 @@
         <v>0.36687732429394559</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>576</v>
       </c>
@@ -55940,7 +55964,7 @@
         <v>0.13194700752946939</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>577</v>
       </c>
@@ -55969,7 +55993,7 @@
         <v>0.98136442536030755</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>578</v>
       </c>
@@ -56000,6 +56024,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K516" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>